--- a/Doğus Datathon/EVDS.xlsx
+++ b/Doğus Datathon/EVDS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data Scientist\Data Science\Data-Scientist\Doğus Datathon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FD89C1-6E13-4FCA-901C-458B2F62563F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B846054D-8CDD-4857-A9DF-A31831889170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1875" windowWidth="21705" windowHeight="13725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EVDS" sheetId="1" r:id="rId1"/>
@@ -2565,10 +2565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G742"/>
+  <dimension ref="A1:G743"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2590,24 +2590,24 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
+      <c r="A2" s="4">
+        <v>43466</v>
       </c>
       <c r="B2" s="2">
         <v>5.2809999999999997</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="2">
-        <v>5.3315999999999999</v>
+        <v>5.2809999999999997</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2617,10 +2617,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="2">
-        <v>5.4588000000000001</v>
+        <v>5.3315999999999999</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2">
         <v>5.4588000000000001</v>
@@ -2643,7 +2643,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2">
         <v>5.4588000000000001</v>
@@ -2656,10 +2656,10 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>5.4088000000000003</v>
+        <v>5.4588000000000001</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -2669,10 +2669,10 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>5.3597000000000001</v>
+        <v>5.4088000000000003</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2682,10 +2682,10 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2">
-        <v>5.4264000000000001</v>
+        <v>5.3597000000000001</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
@@ -2695,10 +2695,10 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>5.4973000000000001</v>
+        <v>5.4264000000000001</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2708,10 +2708,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2">
-        <v>5.4626000000000001</v>
+        <v>5.4973000000000001</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2721,7 +2721,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2">
         <v>5.4626000000000001</v>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="2">
         <v>5.4626000000000001</v>
@@ -2747,10 +2747,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="2">
-        <v>5.4241999999999999</v>
+        <v>5.4626000000000001</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -2760,10 +2760,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="2">
-        <v>5.5103</v>
+        <v>5.4241999999999999</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -2773,10 +2773,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2">
-        <v>5.4401000000000002</v>
+        <v>5.5103</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2786,10 +2786,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2">
-        <v>5.4036999999999997</v>
+        <v>5.4401000000000002</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -2799,10 +2799,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="2">
-        <v>5.3563000000000001</v>
+        <v>5.4036999999999997</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -2812,7 +2812,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="2">
         <v>5.3563000000000001</v>
@@ -2825,7 +2825,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="2">
         <v>5.3563000000000001</v>
@@ -2838,10 +2838,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2">
-        <v>5.3429000000000002</v>
+        <v>5.3563000000000001</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -2851,10 +2851,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2">
-        <v>5.3369</v>
+        <v>5.3429000000000002</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -2864,10 +2864,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2">
-        <v>5.3453999999999997</v>
+        <v>5.3369</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2877,10 +2877,10 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2">
-        <v>5.3141999999999996</v>
+        <v>5.3453999999999997</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2890,10 +2890,10 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2">
-        <v>5.274</v>
+        <v>5.3141999999999996</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="2">
         <v>5.274</v>
@@ -2916,7 +2916,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="2">
         <v>5.274</v>
@@ -2929,10 +2929,10 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="2">
-        <v>5.2641</v>
+        <v>5.274</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2942,10 +2942,10 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="2">
-        <v>5.2763</v>
+        <v>5.2641</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -2955,10 +2955,10 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="2">
-        <v>5.3338999999999999</v>
+        <v>5.2763</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -2968,10 +2968,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2">
-        <v>5.2781000000000002</v>
+        <v>5.3338999999999999</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -2981,10 +2981,10 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="2">
-        <v>5.2108999999999996</v>
+        <v>5.2781000000000002</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="2">
         <v>5.2108999999999996</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34" s="2">
         <v>5.2108999999999996</v>
@@ -3020,10 +3020,10 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="2">
-        <v>5.1944999999999997</v>
+        <v>5.2108999999999996</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -3033,10 +3033,10 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="2">
-        <v>5.2194000000000003</v>
+        <v>5.1944999999999997</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -3046,10 +3046,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="2">
-        <v>5.1978999999999997</v>
+        <v>5.2194000000000003</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -3059,10 +3059,10 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2">
-        <v>5.2088999999999999</v>
+        <v>5.1978999999999997</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -3072,10 +3072,10 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="2">
-        <v>5.2407000000000004</v>
+        <v>5.2088999999999999</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -3085,7 +3085,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="2">
         <v>5.2407000000000004</v>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B41" s="2">
         <v>5.2407000000000004</v>
@@ -3111,10 +3111,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B42" s="2">
-        <v>5.2438000000000002</v>
+        <v>5.2407000000000004</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -3124,10 +3124,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B43" s="2">
-        <v>5.2556000000000003</v>
+        <v>5.2438000000000002</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -3137,10 +3137,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" s="2">
-        <v>5.2637999999999998</v>
+        <v>5.2556000000000003</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -3150,10 +3150,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" s="2">
-        <v>5.2428999999999997</v>
+        <v>5.2637999999999998</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -3163,10 +3163,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" s="2">
-        <v>5.2866999999999997</v>
+        <v>5.2428999999999997</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -3176,7 +3176,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" s="2">
         <v>5.2866999999999997</v>
@@ -3189,7 +3189,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" s="2">
         <v>5.2866999999999997</v>
@@ -3202,10 +3202,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="2">
-        <v>5.2601000000000004</v>
+        <v>5.2866999999999997</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -3215,10 +3215,10 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" s="2">
-        <v>5.2922000000000002</v>
+        <v>5.2601000000000004</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -3228,10 +3228,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" s="2">
-        <v>5.3052000000000001</v>
+        <v>5.2922000000000002</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -3241,10 +3241,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" s="2">
-        <v>5.2964000000000002</v>
+        <v>5.3052000000000001</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -3254,10 +3254,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B53" s="2">
-        <v>5.3140999999999998</v>
+        <v>5.2964000000000002</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -3267,7 +3267,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B54" s="2">
         <v>5.3140999999999998</v>
@@ -3280,7 +3280,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B55" s="2">
         <v>5.3140999999999998</v>
@@ -3293,10 +3293,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B56" s="2">
-        <v>5.3167999999999997</v>
+        <v>5.3140999999999998</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -3306,10 +3306,10 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B57" s="2">
-        <v>5.3057999999999996</v>
+        <v>5.3167999999999997</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -3319,10 +3319,10 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B58" s="2">
-        <v>5.2949000000000002</v>
+        <v>5.3057999999999996</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -3332,10 +3332,10 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B59" s="2">
-        <v>5.2904999999999998</v>
+        <v>5.2949000000000002</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -3345,10 +3345,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B60" s="2">
-        <v>5.3177000000000003</v>
+        <v>5.2904999999999998</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -3358,7 +3358,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B61" s="2">
         <v>5.3177000000000003</v>
@@ -3371,7 +3371,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B62" s="2">
         <v>5.3177000000000003</v>
@@ -3384,10 +3384,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B63" s="2">
-        <v>5.3441999999999998</v>
+        <v>5.3177000000000003</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -3397,10 +3397,10 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B64" s="2">
-        <v>5.3780999999999999</v>
+        <v>5.3441999999999998</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -3410,10 +3410,10 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B65" s="2">
-        <v>5.3670999999999998</v>
+        <v>5.3780999999999999</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -3423,10 +3423,10 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B66" s="2">
-        <v>5.3789999999999996</v>
+        <v>5.3670999999999998</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
@@ -3436,10 +3436,10 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B67" s="2">
-        <v>5.4309000000000003</v>
+        <v>5.3789999999999996</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -3449,7 +3449,7 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B68" s="2">
         <v>5.4309000000000003</v>
@@ -3462,7 +3462,7 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B69" s="2">
         <v>5.4309000000000003</v>
@@ -3475,10 +3475,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B70" s="2">
-        <v>5.4543999999999997</v>
+        <v>5.4309000000000003</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -3488,10 +3488,10 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B71" s="2">
-        <v>5.4344999999999999</v>
+        <v>5.4543999999999997</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -3501,10 +3501,10 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B72" s="2">
-        <v>5.4359000000000002</v>
+        <v>5.4344999999999999</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -3514,10 +3514,10 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B73" s="2">
-        <v>5.4523000000000001</v>
+        <v>5.4359000000000002</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -3527,10 +3527,10 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B74" s="2">
-        <v>5.4617000000000004</v>
+        <v>5.4523000000000001</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -3540,7 +3540,7 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B75" s="2">
         <v>5.4617000000000004</v>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B76" s="2">
         <v>5.4617000000000004</v>
@@ -3566,10 +3566,10 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" s="2">
-        <v>5.4564000000000004</v>
+        <v>5.4617000000000004</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -3579,10 +3579,10 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B78" s="2">
-        <v>5.4543999999999997</v>
+        <v>5.4564000000000004</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -3592,10 +3592,10 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B79" s="2">
-        <v>5.4641999999999999</v>
+        <v>5.4543999999999997</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -3605,10 +3605,10 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B80" s="2">
-        <v>5.47</v>
+        <v>5.4641999999999999</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2"/>
@@ -3618,10 +3618,10 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B81" s="2">
-        <v>5.4391999999999996</v>
+        <v>5.47</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B82" s="2">
         <v>5.4391999999999996</v>
@@ -3644,7 +3644,7 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B83" s="2">
         <v>5.4391999999999996</v>
@@ -3657,10 +3657,10 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B84" s="2">
-        <v>5.5274000000000001</v>
+        <v>5.4391999999999996</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -3670,10 +3670,10 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B85" s="2">
-        <v>5.6458000000000004</v>
+        <v>5.5274000000000001</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -3683,10 +3683,10 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B86" s="2">
-        <v>5.4945000000000004</v>
+        <v>5.6458000000000004</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -3696,10 +3696,10 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B87" s="2">
-        <v>5.3307000000000002</v>
+        <v>5.4945000000000004</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -3709,10 +3709,10 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B88" s="2">
-        <v>5.5423</v>
+        <v>5.3307000000000002</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -3722,7 +3722,7 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B89" s="2">
         <v>5.5423</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B90" s="2">
         <v>5.5423</v>
@@ -3748,10 +3748,10 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B91" s="2">
-        <v>5.6284000000000001</v>
+        <v>5.5423</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -3761,10 +3761,10 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92" s="2">
-        <v>5.5986000000000002</v>
+        <v>5.6284000000000001</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -3774,10 +3774,10 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2">
-        <v>5.5568999999999997</v>
+        <v>5.5986000000000002</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -3787,10 +3787,10 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B94" s="2">
-        <v>5.6067</v>
+        <v>5.5568999999999997</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -3800,10 +3800,10 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2">
-        <v>5.6291000000000002</v>
+        <v>5.6067</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" s="2">
         <v>5.6291000000000002</v>
@@ -3826,7 +3826,7 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B97" s="2">
         <v>5.6291000000000002</v>
@@ -3839,10 +3839,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B98" s="2">
-        <v>5.5922999999999998</v>
+        <v>5.6291000000000002</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
@@ -3852,10 +3852,10 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2">
-        <v>5.6670999999999996</v>
+        <v>5.5922999999999998</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
@@ -3865,10 +3865,10 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B100" s="2">
-        <v>5.6576000000000004</v>
+        <v>5.6670999999999996</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
@@ -3878,10 +3878,10 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101" s="2">
-        <v>5.6726999999999999</v>
+        <v>5.6576000000000004</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
@@ -3891,10 +3891,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B102" s="2">
-        <v>5.7111999999999998</v>
+        <v>5.6726999999999999</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -3904,7 +3904,7 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B103" s="2">
         <v>5.7111999999999998</v>
@@ -3917,7 +3917,7 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B104" s="2">
         <v>5.7111999999999998</v>
@@ -3930,10 +3930,10 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B105" s="2">
-        <v>5.7827000000000002</v>
+        <v>5.7111999999999998</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
@@ -3943,10 +3943,10 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B106" s="2">
-        <v>5.7851999999999997</v>
+        <v>5.7827000000000002</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -3956,10 +3956,10 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B107" s="2">
-        <v>5.7892000000000001</v>
+        <v>5.7851999999999997</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -3969,10 +3969,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B108" s="2">
-        <v>5.7427000000000001</v>
+        <v>5.7892000000000001</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -3982,10 +3982,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B109" s="2">
-        <v>5.8094000000000001</v>
+        <v>5.7427000000000001</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B110" s="2">
         <v>5.8094000000000001</v>
@@ -4008,7 +4008,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B111" s="2">
         <v>5.8094000000000001</v>
@@ -4021,10 +4021,10 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B112" s="2">
-        <v>5.7920999999999996</v>
+        <v>5.8094000000000001</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
@@ -4034,7 +4034,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B113" s="2">
         <v>5.7920999999999996</v>
@@ -4047,10 +4047,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B114" s="2">
-        <v>5.8253000000000004</v>
+        <v>5.7920999999999996</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
@@ -4060,10 +4060,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B115" s="2">
-        <v>5.8597999999999999</v>
+        <v>5.8253000000000004</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
@@ -4073,10 +4073,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B116" s="2">
-        <v>5.8926999999999996</v>
+        <v>5.8597999999999999</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
@@ -4086,7 +4086,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B117" s="2">
         <v>5.8926999999999996</v>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B118" s="2">
         <v>5.8926999999999996</v>
@@ -4112,10 +4112,10 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B119" s="2">
-        <v>5.9233000000000002</v>
+        <v>5.8926999999999996</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
@@ -4125,10 +4125,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B120" s="2">
-        <v>5.9282000000000004</v>
+        <v>5.9233000000000002</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
@@ -4138,7 +4138,7 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B121" s="2">
         <v>5.9282000000000004</v>
@@ -4151,10 +4151,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B122" s="2">
-        <v>5.9562999999999997</v>
+        <v>5.9282000000000004</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
@@ -4164,10 +4164,10 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B123" s="2">
-        <v>5.9570999999999996</v>
+        <v>5.9562999999999997</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
@@ -4177,7 +4177,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B124" s="2">
         <v>5.9570999999999996</v>
@@ -4190,7 +4190,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B125" s="2">
         <v>5.9570999999999996</v>
@@ -4203,10 +4203,10 @@
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B126" s="2">
-        <v>5.9602000000000004</v>
+        <v>5.9570999999999996</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
@@ -4216,10 +4216,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B127" s="2">
-        <v>5.9915000000000003</v>
+        <v>5.9602000000000004</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
@@ -4229,10 +4229,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B128" s="2">
-        <v>6.1475</v>
+        <v>5.9915000000000003</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
@@ -4242,10 +4242,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B129" s="2">
-        <v>6.1607000000000003</v>
+        <v>6.1475</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
@@ -4255,10 +4255,10 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B130" s="2">
-        <v>6.2026000000000003</v>
+        <v>6.1607000000000003</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
@@ -4268,7 +4268,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B131" s="2">
         <v>6.2026000000000003</v>
@@ -4281,7 +4281,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B132" s="2">
         <v>6.2026000000000003</v>
@@ -4294,10 +4294,10 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B133" s="2">
-        <v>6.1128999999999998</v>
+        <v>6.2026000000000003</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -4307,10 +4307,10 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B134" s="2">
-        <v>6.0827</v>
+        <v>6.1128999999999998</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -4320,10 +4320,10 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B135" s="2">
-        <v>6.0438000000000001</v>
+        <v>6.0827</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
@@ -4333,10 +4333,10 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B136" s="2">
-        <v>6.0529000000000002</v>
+        <v>6.0438000000000001</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
@@ -4346,10 +4346,10 @@
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B137" s="2">
-        <v>5.9999000000000002</v>
+        <v>6.0529000000000002</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B138" s="2">
         <v>5.9999000000000002</v>
@@ -4372,7 +4372,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B139" s="2">
         <v>5.9999000000000002</v>
@@ -4385,10 +4385,10 @@
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B140" s="2">
-        <v>6.0462999999999996</v>
+        <v>5.9999000000000002</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
@@ -4398,10 +4398,10 @@
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B141" s="2">
-        <v>6.04</v>
+        <v>6.0462999999999996</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
@@ -4411,10 +4411,10 @@
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B142" s="2">
-        <v>6.0425000000000004</v>
+        <v>6.04</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
@@ -4424,10 +4424,10 @@
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B143" s="2">
-        <v>6.0762</v>
+        <v>6.0425000000000004</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
@@ -4437,10 +4437,10 @@
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B144" s="2">
-        <v>6.1252000000000004</v>
+        <v>6.0762</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
@@ -4450,7 +4450,7 @@
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B145" s="2">
         <v>6.1252000000000004</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B146" s="2">
         <v>6.1252000000000004</v>
@@ -4476,10 +4476,10 @@
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B147" s="2">
-        <v>6.0655999999999999</v>
+        <v>6.1252000000000004</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
@@ -4489,10 +4489,10 @@
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B148" s="2">
-        <v>6.0460000000000003</v>
+        <v>6.0655999999999999</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
@@ -4502,10 +4502,10 @@
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B149" s="2">
-        <v>6.0392000000000001</v>
+        <v>6.0460000000000003</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -4515,10 +4515,10 @@
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B150" s="2">
-        <v>6.0152000000000001</v>
+        <v>6.0392000000000001</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
@@ -4528,10 +4528,10 @@
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B151" s="2">
-        <v>5.9234999999999998</v>
+        <v>6.0152000000000001</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
@@ -4541,7 +4541,7 @@
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B152" s="2">
         <v>5.9234999999999998</v>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B153" s="2">
         <v>5.9234999999999998</v>
@@ -4567,10 +4567,10 @@
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B154" s="2">
-        <v>5.8613</v>
+        <v>5.9234999999999998</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
@@ -4580,7 +4580,7 @@
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B155" s="2">
         <v>5.8613</v>
@@ -4593,7 +4593,7 @@
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B156" s="2">
         <v>5.8613</v>
@@ -4606,7 +4606,7 @@
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B157" s="2">
         <v>5.8613</v>
@@ -4619,7 +4619,7 @@
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B158" s="2">
         <v>5.8613</v>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B159" s="2">
         <v>5.8613</v>
@@ -4645,7 +4645,7 @@
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B160" s="2">
         <v>5.8613</v>
@@ -4658,10 +4658,10 @@
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B161" s="2">
-        <v>5.8353999999999999</v>
+        <v>5.8613</v>
       </c>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
@@ -4671,10 +4671,10 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B162" s="2">
-        <v>5.8070000000000004</v>
+        <v>5.8353999999999999</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
@@ -4684,10 +4684,10 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B163" s="2">
-        <v>5.7790999999999997</v>
+        <v>5.8070000000000004</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
@@ -4697,10 +4697,10 @@
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B164" s="2">
-        <v>5.7996999999999996</v>
+        <v>5.7790999999999997</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
@@ -4710,10 +4710,10 @@
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B165" s="2">
-        <v>5.8263999999999996</v>
+        <v>5.7996999999999996</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
@@ -4723,7 +4723,7 @@
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B166" s="2">
         <v>5.8263999999999996</v>
@@ -4736,7 +4736,7 @@
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B167" s="2">
         <v>5.8263999999999996</v>
@@ -4749,10 +4749,10 @@
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B168" s="2">
-        <v>5.8826000000000001</v>
+        <v>5.8263999999999996</v>
       </c>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
@@ -4762,10 +4762,10 @@
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B169" s="2">
-        <v>5.8704000000000001</v>
+        <v>5.8826000000000001</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
@@ -4775,10 +4775,10 @@
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B170" s="2">
-        <v>5.8410000000000002</v>
+        <v>5.8704000000000001</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
@@ -4788,10 +4788,10 @@
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B171" s="2">
-        <v>5.8517999999999999</v>
+        <v>5.8410000000000002</v>
       </c>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
@@ -4801,10 +4801,10 @@
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B172" s="2">
-        <v>5.7310999999999996</v>
+        <v>5.8517999999999999</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
@@ -4814,7 +4814,7 @@
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B173" s="2">
         <v>5.7310999999999996</v>
@@ -4827,7 +4827,7 @@
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B174" s="2">
         <v>5.7310999999999996</v>
@@ -4840,10 +4840,10 @@
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B175" s="2">
-        <v>5.7915000000000001</v>
+        <v>5.7310999999999996</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
@@ -4853,10 +4853,10 @@
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B176" s="2">
-        <v>5.7443999999999997</v>
+        <v>5.7915000000000001</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
@@ -4866,10 +4866,10 @@
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B177" s="2">
-        <v>5.7904</v>
+        <v>5.7443999999999997</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
@@ -4879,10 +4879,10 @@
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B178" s="2">
-        <v>5.7629999999999999</v>
+        <v>5.7904</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
@@ -4892,10 +4892,10 @@
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B179" s="2">
-        <v>5.7664999999999997</v>
+        <v>5.7629999999999999</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B180" s="2">
         <v>5.7664999999999997</v>
@@ -4918,7 +4918,7 @@
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B181" s="2">
         <v>5.7664999999999997</v>
@@ -4931,10 +4931,10 @@
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B182" s="2">
-        <v>5.7550999999999997</v>
+        <v>5.7664999999999997</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
@@ -4944,10 +4944,10 @@
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B183" s="2">
-        <v>5.6791999999999998</v>
+        <v>5.7550999999999997</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
@@ -4957,10 +4957,10 @@
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B184" s="2">
-        <v>5.6669</v>
+        <v>5.6791999999999998</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
@@ -4970,10 +4970,10 @@
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B185" s="2">
-        <v>5.6292</v>
+        <v>5.6669</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
@@ -4983,10 +4983,10 @@
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B186" s="2">
-        <v>5.5933999999999999</v>
+        <v>5.6292</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
@@ -4996,7 +4996,7 @@
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B187" s="2">
         <v>5.5933999999999999</v>
@@ -5009,7 +5009,7 @@
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B188" s="2">
         <v>5.5933999999999999</v>
@@ -5022,10 +5022,10 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B189" s="2">
-        <v>5.6006999999999998</v>
+        <v>5.5933999999999999</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -5035,10 +5035,10 @@
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B190" s="2">
-        <v>5.7226999999999997</v>
+        <v>5.6006999999999998</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
@@ -5048,10 +5048,10 @@
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B191" s="2">
-        <v>5.7122000000000002</v>
+        <v>5.7226999999999997</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
@@ -5061,10 +5061,10 @@
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B192" s="2">
-        <v>5.7381000000000002</v>
+        <v>5.7122000000000002</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
@@ -5074,10 +5074,10 @@
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B193" s="2">
-        <v>5.6665000000000001</v>
+        <v>5.7381000000000002</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B194" s="2">
         <v>5.6665000000000001</v>
@@ -5100,7 +5100,7 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B195" s="2">
         <v>5.6665000000000001</v>
@@ -5113,7 +5113,7 @@
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B196" s="2">
         <v>5.6665000000000001</v>
@@ -5126,10 +5126,10 @@
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B197" s="2">
-        <v>5.6916000000000002</v>
+        <v>5.6665000000000001</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
@@ -5139,10 +5139,10 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B198" s="2">
-        <v>5.7027000000000001</v>
+        <v>5.6916000000000002</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
@@ -5152,10 +5152,10 @@
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B199" s="2">
-        <v>5.6928999999999998</v>
+        <v>5.7027000000000001</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
@@ -5165,10 +5165,10 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B200" s="2">
-        <v>5.6912000000000003</v>
+        <v>5.6928999999999998</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
@@ -5178,7 +5178,7 @@
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B201" s="2">
         <v>5.6912000000000003</v>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B202" s="2">
         <v>5.6912000000000003</v>
@@ -5204,10 +5204,10 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B203" s="2">
-        <v>5.6315999999999997</v>
+        <v>5.6912000000000003</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" s="2"/>
@@ -5217,10 +5217,10 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B204" s="2">
-        <v>5.6684000000000001</v>
+        <v>5.6315999999999997</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" s="2"/>
@@ -5230,10 +5230,10 @@
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B205" s="2">
-        <v>5.6783999999999999</v>
+        <v>5.6684000000000001</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" s="2"/>
@@ -5243,10 +5243,10 @@
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B206" s="2">
-        <v>5.7134999999999998</v>
+        <v>5.6783999999999999</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" s="2"/>
@@ -5256,10 +5256,10 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B207" s="2">
-        <v>5.6990999999999996</v>
+        <v>5.7134999999999998</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" s="2"/>
@@ -5269,7 +5269,7 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B208" s="2">
         <v>5.6990999999999996</v>
@@ -5282,7 +5282,7 @@
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B209" s="2">
         <v>5.6990999999999996</v>
@@ -5295,10 +5295,10 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B210" s="2">
-        <v>5.6563999999999997</v>
+        <v>5.6990999999999996</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" s="2"/>
@@ -5308,10 +5308,10 @@
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B211" s="2">
-        <v>5.6272000000000002</v>
+        <v>5.6563999999999997</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" s="2"/>
@@ -5321,10 +5321,10 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B212" s="2">
-        <v>5.5709</v>
+        <v>5.6272000000000002</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" s="2"/>
@@ -5334,10 +5334,10 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B213" s="2">
-        <v>5.5227000000000004</v>
+        <v>5.5709</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" s="2"/>
@@ -5347,10 +5347,10 @@
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B214" s="2">
-        <v>5.5815000000000001</v>
+        <v>5.5227000000000004</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" s="2"/>
@@ -5360,7 +5360,7 @@
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B215" s="2">
         <v>5.5815000000000001</v>
@@ -5373,7 +5373,7 @@
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B216" s="2">
         <v>5.5815000000000001</v>
@@ -5386,10 +5386,10 @@
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B217" s="2">
-        <v>5.5808999999999997</v>
+        <v>5.5815000000000001</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" s="2"/>
@@ -5399,10 +5399,10 @@
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B218" s="2">
-        <v>5.556</v>
+        <v>5.5808999999999997</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" s="2"/>
@@ -5412,10 +5412,10 @@
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B219" s="2">
-        <v>5.5315000000000003</v>
+        <v>5.556</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" s="2"/>
@@ -5425,10 +5425,10 @@
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B220" s="2">
-        <v>5.4858000000000002</v>
+        <v>5.5315000000000003</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" s="2"/>
@@ -5438,10 +5438,10 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B221" s="2">
-        <v>5.4744000000000002</v>
+        <v>5.4858000000000002</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
@@ -5451,7 +5451,7 @@
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B222" s="2">
         <v>5.4744000000000002</v>
@@ -5464,7 +5464,7 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B223" s="2">
         <v>5.4744000000000002</v>
@@ -5477,7 +5477,7 @@
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B224" s="2">
         <v>5.4744000000000002</v>
@@ -5490,7 +5490,7 @@
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B225" s="2">
         <v>5.4744000000000002</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B226" s="2">
         <v>5.4744000000000002</v>
@@ -5516,10 +5516,10 @@
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B227" s="2">
-        <v>5.4809000000000001</v>
+        <v>5.4744000000000002</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" s="2"/>
@@ -5529,10 +5529,10 @@
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B228" s="2">
-        <v>5.5713999999999997</v>
+        <v>5.4809000000000001</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" s="2"/>
@@ -5542,7 +5542,7 @@
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B229" s="2">
         <v>5.5713999999999997</v>
@@ -5555,7 +5555,7 @@
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B230" s="2">
         <v>5.5713999999999997</v>
@@ -5568,10 +5568,10 @@
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B231" s="2">
-        <v>5.5397999999999996</v>
+        <v>5.5713999999999997</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
@@ -5581,10 +5581,10 @@
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B232" s="2">
-        <v>5.5774999999999997</v>
+        <v>5.5397999999999996</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
@@ -5594,10 +5594,10 @@
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B233" s="2">
-        <v>5.7046000000000001</v>
+        <v>5.5774999999999997</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
@@ -5607,10 +5607,10 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B234" s="2">
-        <v>5.7096</v>
+        <v>5.7046000000000001</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
@@ -5620,10 +5620,10 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B235" s="2">
-        <v>5.7477999999999998</v>
+        <v>5.7096</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
@@ -5633,7 +5633,7 @@
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B236" s="2">
         <v>5.7477999999999998</v>
@@ -5646,7 +5646,7 @@
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B237" s="2">
         <v>5.7477999999999998</v>
@@ -5659,10 +5659,10 @@
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B238" s="2">
-        <v>5.7538</v>
+        <v>5.7477999999999998</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
@@ -5672,10 +5672,10 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B239" s="2">
-        <v>5.8029000000000002</v>
+        <v>5.7538</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" s="2"/>
@@ -5685,10 +5685,10 @@
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B240" s="2">
-        <v>5.8257000000000003</v>
+        <v>5.8029000000000002</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" s="2"/>
@@ -5698,10 +5698,10 @@
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B241" s="2">
-        <v>5.7994000000000003</v>
+        <v>5.8257000000000003</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" s="2"/>
@@ -5711,7 +5711,7 @@
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B242" s="2">
         <v>5.7994000000000003</v>
@@ -5724,7 +5724,7 @@
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B243" s="2">
         <v>5.7994000000000003</v>
@@ -5737,7 +5737,7 @@
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B244" s="2">
         <v>5.7994000000000003</v>
@@ -5750,10 +5750,10 @@
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B245" s="2">
-        <v>5.8140000000000001</v>
+        <v>5.7994000000000003</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" s="2"/>
@@ -5763,10 +5763,10 @@
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B246" s="2">
-        <v>5.8044000000000002</v>
+        <v>5.8140000000000001</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" s="2"/>
@@ -5776,10 +5776,10 @@
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B247" s="2">
-        <v>5.7725999999999997</v>
+        <v>5.8044000000000002</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" s="2"/>
@@ -5789,10 +5789,10 @@
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B248" s="2">
-        <v>5.6656000000000004</v>
+        <v>5.7725999999999997</v>
       </c>
       <c r="C248" s="2"/>
       <c r="D248" s="2"/>
@@ -5802,10 +5802,10 @@
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B249" s="2">
-        <v>5.6745999999999999</v>
+        <v>5.6656000000000004</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" s="2"/>
@@ -5815,7 +5815,7 @@
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B250" s="2">
         <v>5.6745999999999999</v>
@@ -5828,7 +5828,7 @@
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B251" s="2">
         <v>5.6745999999999999</v>
@@ -5841,10 +5841,10 @@
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B252" s="2">
-        <v>5.6932</v>
+        <v>5.6745999999999999</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" s="2"/>
@@ -5854,10 +5854,10 @@
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B253" s="2">
-        <v>5.7214999999999998</v>
+        <v>5.6932</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" s="2"/>
@@ -5867,10 +5867,10 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B254" s="2">
-        <v>5.7568000000000001</v>
+        <v>5.7214999999999998</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" s="2"/>
@@ -5880,10 +5880,10 @@
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B255" s="2">
-        <v>5.7710999999999997</v>
+        <v>5.7568000000000001</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" s="2"/>
@@ -5893,10 +5893,10 @@
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B256" s="2">
-        <v>5.7282999999999999</v>
+        <v>5.7710999999999997</v>
       </c>
       <c r="C256" s="2"/>
       <c r="D256" s="2"/>
@@ -5906,7 +5906,7 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B257" s="2">
         <v>5.7282999999999999</v>
@@ -5919,7 +5919,7 @@
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B258" s="2">
         <v>5.7282999999999999</v>
@@ -5932,10 +5932,10 @@
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B259" s="2">
-        <v>5.6665000000000001</v>
+        <v>5.7282999999999999</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" s="2"/>
@@ -5945,10 +5945,10 @@
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B260" s="2">
-        <v>5.7125000000000004</v>
+        <v>5.6665000000000001</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" s="2"/>
@@ -5958,10 +5958,10 @@
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B261" s="2">
-        <v>5.7226999999999997</v>
+        <v>5.7125000000000004</v>
       </c>
       <c r="C261" s="2"/>
       <c r="D261" s="2"/>
@@ -5971,10 +5971,10 @@
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B262" s="2">
-        <v>5.6784999999999997</v>
+        <v>5.7226999999999997</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" s="2"/>
@@ -5984,10 +5984,10 @@
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B263" s="2">
-        <v>5.6917</v>
+        <v>5.6784999999999997</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" s="2"/>
@@ -5997,7 +5997,7 @@
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B264" s="2">
         <v>5.6917</v>
@@ -6010,7 +6010,7 @@
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B265" s="2">
         <v>5.6917</v>
@@ -6023,10 +6023,10 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B266" s="2">
-        <v>5.6889000000000003</v>
+        <v>5.6917</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" s="2"/>
@@ -6036,10 +6036,10 @@
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B267" s="2">
-        <v>5.7183000000000002</v>
+        <v>5.6889000000000003</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" s="2"/>
@@ -6049,10 +6049,10 @@
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B268" s="2">
-        <v>5.6742999999999997</v>
+        <v>5.7183000000000002</v>
       </c>
       <c r="C268" s="2"/>
       <c r="D268" s="2"/>
@@ -6062,10 +6062,10 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B269" s="2">
-        <v>5.6882000000000001</v>
+        <v>5.6742999999999997</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" s="2"/>
@@ -6075,10 +6075,10 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B270" s="2">
-        <v>5.6658999999999997</v>
+        <v>5.6882000000000001</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" s="2"/>
@@ -6088,7 +6088,7 @@
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B271" s="2">
         <v>5.6658999999999997</v>
@@ -6101,7 +6101,7 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B272" s="2">
         <v>5.6658999999999997</v>
@@ -6114,10 +6114,10 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B273" s="2">
-        <v>5.6590999999999996</v>
+        <v>5.6658999999999997</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
@@ -6127,10 +6127,10 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B274" s="2">
-        <v>5.6436999999999999</v>
+        <v>5.6590999999999996</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" s="2"/>
@@ -6140,10 +6140,10 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B275" s="2">
-        <v>5.6752000000000002</v>
+        <v>5.6436999999999999</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
@@ -6153,10 +6153,10 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B276" s="2">
-        <v>5.7279999999999998</v>
+        <v>5.6752000000000002</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" s="2"/>
@@ -6166,10 +6166,10 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B277" s="2">
-        <v>5.6853999999999996</v>
+        <v>5.7279999999999998</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" s="2"/>
@@ -6179,7 +6179,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B278" s="2">
         <v>5.6853999999999996</v>
@@ -6192,7 +6192,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B279" s="2">
         <v>5.6853999999999996</v>
@@ -6205,10 +6205,10 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B280" s="2">
-        <v>5.6894</v>
+        <v>5.6853999999999996</v>
       </c>
       <c r="C280" s="2"/>
       <c r="D280" s="2"/>
@@ -6218,10 +6218,10 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B281" s="2">
-        <v>5.7343000000000002</v>
+        <v>5.6894</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
@@ -6231,10 +6231,10 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B282" s="2">
-        <v>5.8159999999999998</v>
+        <v>5.7343000000000002</v>
       </c>
       <c r="C282" s="2"/>
       <c r="D282" s="2"/>
@@ -6244,10 +6244,10 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B283" s="2">
-        <v>5.8276000000000003</v>
+        <v>5.8159999999999998</v>
       </c>
       <c r="C283" s="2"/>
       <c r="D283" s="2"/>
@@ -6257,10 +6257,10 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B284" s="2">
-        <v>5.8704000000000001</v>
+        <v>5.8276000000000003</v>
       </c>
       <c r="C284" s="2"/>
       <c r="D284" s="2"/>
@@ -6270,7 +6270,7 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B285" s="2">
         <v>5.8704000000000001</v>
@@ -6283,7 +6283,7 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B286" s="2">
         <v>5.8704000000000001</v>
@@ -6296,10 +6296,10 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B287" s="2">
-        <v>5.8417000000000003</v>
+        <v>5.8704000000000001</v>
       </c>
       <c r="C287" s="2"/>
       <c r="D287" s="2"/>
@@ -6309,10 +6309,10 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B288" s="2">
-        <v>5.9103000000000003</v>
+        <v>5.8417000000000003</v>
       </c>
       <c r="C288" s="2"/>
       <c r="D288" s="2"/>
@@ -6322,10 +6322,10 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B289" s="2">
-        <v>5.8880999999999997</v>
+        <v>5.9103000000000003</v>
       </c>
       <c r="C289" s="2"/>
       <c r="D289" s="2"/>
@@ -6335,10 +6335,10 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B290" s="2">
-        <v>5.8914999999999997</v>
+        <v>5.8880999999999997</v>
       </c>
       <c r="C290" s="2"/>
       <c r="D290" s="2"/>
@@ -6348,10 +6348,10 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B291" s="2">
-        <v>5.8806000000000003</v>
+        <v>5.8914999999999997</v>
       </c>
       <c r="C291" s="2"/>
       <c r="D291" s="2"/>
@@ -6361,7 +6361,7 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B292" s="2">
         <v>5.8806000000000003</v>
@@ -6374,7 +6374,7 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B293" s="2">
         <v>5.8806000000000003</v>
@@ -6387,10 +6387,10 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B294" s="2">
-        <v>5.7690000000000001</v>
+        <v>5.8806000000000003</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" s="2"/>
@@ -6400,10 +6400,10 @@
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B295" s="2">
-        <v>5.8124000000000002</v>
+        <v>5.7690000000000001</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" s="2"/>
@@ -6413,10 +6413,10 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B296" s="2">
-        <v>5.8303000000000003</v>
+        <v>5.8124000000000002</v>
       </c>
       <c r="C296" s="2"/>
       <c r="D296" s="2"/>
@@ -6426,10 +6426,10 @@
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B297" s="2">
-        <v>5.7712000000000003</v>
+        <v>5.8303000000000003</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" s="2"/>
@@ -6439,10 +6439,10 @@
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B298" s="2">
-        <v>5.7416999999999998</v>
+        <v>5.7712000000000003</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
@@ -6452,7 +6452,7 @@
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B299" s="2">
         <v>5.7416999999999998</v>
@@ -6465,7 +6465,7 @@
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B300" s="2">
         <v>5.7416999999999998</v>
@@ -6478,10 +6478,10 @@
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B301" s="2">
-        <v>5.7584</v>
+        <v>5.7416999999999998</v>
       </c>
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
@@ -6491,7 +6491,7 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B302" s="2">
         <v>5.7584</v>
@@ -6504,7 +6504,7 @@
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B303" s="2">
         <v>5.7584</v>
@@ -6517,10 +6517,10 @@
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B304" s="2">
-        <v>5.7363</v>
+        <v>5.7584</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
@@ -6530,10 +6530,10 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B305" s="2">
-        <v>5.7083000000000004</v>
+        <v>5.7363</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
@@ -6543,7 +6543,7 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B306" s="2">
         <v>5.7083000000000004</v>
@@ -6556,7 +6556,7 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B307" s="2">
         <v>5.7083000000000004</v>
@@ -6569,10 +6569,10 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B308" s="2">
-        <v>5.7187999999999999</v>
+        <v>5.7083000000000004</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
@@ -6582,10 +6582,10 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B309" s="2">
-        <v>5.6832000000000003</v>
+        <v>5.7187999999999999</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
@@ -6595,10 +6595,10 @@
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B310" s="2">
-        <v>5.7282000000000002</v>
+        <v>5.6832000000000003</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" s="2"/>
@@ -6608,10 +6608,10 @@
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B311" s="2">
-        <v>5.7480000000000002</v>
+        <v>5.7282000000000002</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" s="2"/>
@@ -6621,10 +6621,10 @@
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B312" s="2">
-        <v>5.7366000000000001</v>
+        <v>5.7480000000000002</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
@@ -6634,7 +6634,7 @@
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B313" s="2">
         <v>5.7366000000000001</v>
@@ -6647,7 +6647,7 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B314" s="2">
         <v>5.7366000000000001</v>
@@ -6660,10 +6660,10 @@
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B315" s="2">
-        <v>5.7428999999999997</v>
+        <v>5.7366000000000001</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" s="2"/>
@@ -6673,10 +6673,10 @@
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B316" s="2">
-        <v>5.7704000000000004</v>
+        <v>5.7428999999999997</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" s="2"/>
@@ -6686,10 +6686,10 @@
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B317" s="2">
-        <v>5.7664999999999997</v>
+        <v>5.7704000000000004</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" s="2"/>
@@ -6699,10 +6699,10 @@
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B318" s="2">
-        <v>5.7572999999999999</v>
+        <v>5.7664999999999997</v>
       </c>
       <c r="C318" s="2"/>
       <c r="D318" s="2"/>
@@ -6712,10 +6712,10 @@
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B319" s="2">
-        <v>5.7569999999999997</v>
+        <v>5.7572999999999999</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" s="2"/>
@@ -6725,7 +6725,7 @@
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B320" s="2">
         <v>5.7569999999999997</v>
@@ -6738,7 +6738,7 @@
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B321" s="2">
         <v>5.7569999999999997</v>
@@ -6751,10 +6751,10 @@
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B322" s="2">
-        <v>5.7469999999999999</v>
+        <v>5.7569999999999997</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
@@ -6764,10 +6764,10 @@
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B323" s="2">
-        <v>5.7302999999999997</v>
+        <v>5.7469999999999999</v>
       </c>
       <c r="C323" s="2"/>
       <c r="D323" s="2"/>
@@ -6777,10 +6777,10 @@
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B324" s="2">
-        <v>5.7153</v>
+        <v>5.7302999999999997</v>
       </c>
       <c r="C324" s="2"/>
       <c r="D324" s="2"/>
@@ -6790,10 +6790,10 @@
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B325" s="2">
-        <v>5.6963999999999997</v>
+        <v>5.7153</v>
       </c>
       <c r="C325" s="2"/>
       <c r="D325" s="2"/>
@@ -6803,10 +6803,10 @@
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B326" s="2">
-        <v>5.6896000000000004</v>
+        <v>5.6963999999999997</v>
       </c>
       <c r="C326" s="2"/>
       <c r="D326" s="2"/>
@@ -6816,7 +6816,7 @@
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B327" s="2">
         <v>5.6896000000000004</v>
@@ -6829,7 +6829,7 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B328" s="2">
         <v>5.6896000000000004</v>
@@ -6842,10 +6842,10 @@
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B329" s="2">
-        <v>5.6919000000000004</v>
+        <v>5.6896000000000004</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" s="2"/>
@@ -6855,10 +6855,10 @@
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B330" s="2">
-        <v>5.7191000000000001</v>
+        <v>5.6919000000000004</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" s="2"/>
@@ -6868,10 +6868,10 @@
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B331" s="2">
-        <v>5.7382999999999997</v>
+        <v>5.7191000000000001</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
@@ -6881,10 +6881,10 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B332" s="2">
-        <v>5.7527999999999997</v>
+        <v>5.7382999999999997</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" s="2"/>
@@ -6894,10 +6894,10 @@
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B333" s="2">
-        <v>5.7579000000000002</v>
+        <v>5.7527999999999997</v>
       </c>
       <c r="C333" s="2"/>
       <c r="D333" s="2"/>
@@ -6907,7 +6907,7 @@
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B334" s="2">
         <v>5.7579000000000002</v>
@@ -6920,7 +6920,7 @@
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B335" s="2">
         <v>5.7579000000000002</v>
@@ -6933,10 +6933,10 @@
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B336" s="2">
-        <v>5.7403000000000004</v>
+        <v>5.7579000000000002</v>
       </c>
       <c r="C336" s="2"/>
       <c r="D336" s="2"/>
@@ -6946,10 +6946,10 @@
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B337" s="2">
-        <v>5.7426000000000004</v>
+        <v>5.7403000000000004</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" s="2"/>
@@ -6959,10 +6959,10 @@
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B338" s="2">
-        <v>5.7365000000000004</v>
+        <v>5.7426000000000004</v>
       </c>
       <c r="C338" s="2"/>
       <c r="D338" s="2"/>
@@ -6972,10 +6972,10 @@
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B339" s="2">
-        <v>5.7359999999999998</v>
+        <v>5.7365000000000004</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
@@ -6985,10 +6985,10 @@
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B340" s="2">
-        <v>5.7488000000000001</v>
+        <v>5.7359999999999998</v>
       </c>
       <c r="C340" s="2"/>
       <c r="D340" s="2"/>
@@ -6998,7 +6998,7 @@
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B341" s="2">
         <v>5.7488000000000001</v>
@@ -7011,7 +7011,7 @@
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B342" s="2">
         <v>5.7488000000000001</v>
@@ -7024,10 +7024,10 @@
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B343" s="2">
-        <v>5.7478999999999996</v>
+        <v>5.7488000000000001</v>
       </c>
       <c r="C343" s="2"/>
       <c r="D343" s="2"/>
@@ -7037,10 +7037,10 @@
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B344" s="2">
-        <v>5.7904999999999998</v>
+        <v>5.7478999999999996</v>
       </c>
       <c r="C344" s="2"/>
       <c r="D344" s="2"/>
@@ -7050,10 +7050,10 @@
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B345" s="2">
-        <v>5.7987000000000002</v>
+        <v>5.7904999999999998</v>
       </c>
       <c r="C345" s="2"/>
       <c r="D345" s="2"/>
@@ -7063,10 +7063,10 @@
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B346" s="2">
-        <v>5.7981999999999996</v>
+        <v>5.7987000000000002</v>
       </c>
       <c r="C346" s="2"/>
       <c r="D346" s="2"/>
@@ -7076,10 +7076,10 @@
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B347" s="2">
-        <v>5.7874999999999996</v>
+        <v>5.7981999999999996</v>
       </c>
       <c r="C347" s="2"/>
       <c r="D347" s="2"/>
@@ -7089,7 +7089,7 @@
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B348" s="2">
         <v>5.7874999999999996</v>
@@ -7102,7 +7102,7 @@
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B349" s="2">
         <v>5.7874999999999996</v>
@@ -7115,10 +7115,10 @@
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B350" s="2">
-        <v>5.7725999999999997</v>
+        <v>5.7874999999999996</v>
       </c>
       <c r="C350" s="2"/>
       <c r="D350" s="2"/>
@@ -7128,10 +7128,10 @@
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B351" s="2">
-        <v>5.8343999999999996</v>
+        <v>5.7725999999999997</v>
       </c>
       <c r="C351" s="2"/>
       <c r="D351" s="2"/>
@@ -7141,10 +7141,10 @@
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B352" s="2">
-        <v>5.8558000000000003</v>
+        <v>5.8343999999999996</v>
       </c>
       <c r="C352" s="2"/>
       <c r="D352" s="2"/>
@@ -7154,10 +7154,10 @@
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B353" s="2">
-        <v>5.8990999999999998</v>
+        <v>5.8558000000000003</v>
       </c>
       <c r="C353" s="2"/>
       <c r="D353" s="2"/>
@@ -7167,10 +7167,10 @@
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B354" s="2">
-        <v>5.9252000000000002</v>
+        <v>5.8990999999999998</v>
       </c>
       <c r="C354" s="2"/>
       <c r="D354" s="2"/>
@@ -7180,7 +7180,7 @@
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B355" s="2">
         <v>5.9252000000000002</v>
@@ -7193,7 +7193,7 @@
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B356" s="2">
         <v>5.9252000000000002</v>
@@ -7206,10 +7206,10 @@
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B357" s="2">
-        <v>5.9115000000000002</v>
+        <v>5.9252000000000002</v>
       </c>
       <c r="C357" s="2"/>
       <c r="D357" s="2"/>
@@ -7219,10 +7219,10 @@
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B358" s="2">
-        <v>5.9291</v>
+        <v>5.9115000000000002</v>
       </c>
       <c r="C358" s="2"/>
       <c r="D358" s="2"/>
@@ -7232,10 +7232,10 @@
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B359" s="2">
-        <v>5.9363999999999999</v>
+        <v>5.9291</v>
       </c>
       <c r="C359" s="2"/>
       <c r="D359" s="2"/>
@@ -7245,10 +7245,10 @@
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B360" s="2">
-        <v>5.9292999999999996</v>
+        <v>5.9363999999999999</v>
       </c>
       <c r="C360" s="2"/>
       <c r="D360" s="2"/>
@@ -7258,10 +7258,10 @@
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B361" s="2">
-        <v>5.9302000000000001</v>
+        <v>5.9292999999999996</v>
       </c>
       <c r="C361" s="2"/>
       <c r="D361" s="2"/>
@@ -7271,7 +7271,7 @@
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B362" s="2">
         <v>5.9302000000000001</v>
@@ -7284,7 +7284,7 @@
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B363" s="2">
         <v>5.9302000000000001</v>
@@ -7297,10 +7297,10 @@
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B364" s="2">
-        <v>5.9370000000000003</v>
+        <v>5.9302000000000001</v>
       </c>
       <c r="C364" s="2"/>
       <c r="D364" s="2"/>
@@ -7310,10 +7310,10 @@
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B365" s="2">
-        <v>5.9401999999999999</v>
+        <v>5.9370000000000003</v>
       </c>
       <c r="C365" s="2"/>
       <c r="D365" s="2"/>
@@ -7323,7 +7323,7 @@
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B366" s="2">
         <v>5.9401999999999999</v>
@@ -7336,10 +7336,10 @@
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B367" s="2">
-        <v>5.94</v>
+        <v>5.9401999999999999</v>
       </c>
       <c r="C367" s="2"/>
       <c r="D367" s="2"/>
@@ -7349,10 +7349,10 @@
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B368" s="2">
-        <v>5.9478</v>
+        <v>5.94</v>
       </c>
       <c r="C368" s="2"/>
       <c r="D368" s="2"/>
@@ -7362,7 +7362,7 @@
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B369" s="2">
         <v>5.9478</v>
@@ -7375,7 +7375,7 @@
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B370" s="2">
         <v>5.9478</v>
@@ -7388,10 +7388,10 @@
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B371" s="2">
-        <v>5.9626999999999999</v>
+        <v>5.9478</v>
       </c>
       <c r="C371" s="2"/>
       <c r="D371" s="2"/>
@@ -7401,10 +7401,10 @@
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B372" s="2">
-        <v>5.9657999999999998</v>
+        <v>5.9626999999999999</v>
       </c>
       <c r="C372" s="2"/>
       <c r="D372" s="2"/>
@@ -7414,10 +7414,10 @@
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B373" s="2">
-        <v>5.9593999999999996</v>
+        <v>5.9657999999999998</v>
       </c>
       <c r="C373" s="2"/>
       <c r="D373" s="2"/>
@@ -7427,10 +7427,10 @@
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B374" s="2">
-        <v>5.9570999999999996</v>
+        <v>5.9593999999999996</v>
       </c>
       <c r="C374" s="2"/>
       <c r="D374" s="2"/>
@@ -7440,10 +7440,10 @@
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B375" s="2">
-        <v>5.8810000000000002</v>
+        <v>5.9570999999999996</v>
       </c>
       <c r="C375" s="2"/>
       <c r="D375" s="2"/>
@@ -7453,7 +7453,7 @@
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B376" s="2">
         <v>5.8810000000000002</v>
@@ -7466,7 +7466,7 @@
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B377" s="2">
         <v>5.8810000000000002</v>
@@ -7479,10 +7479,10 @@
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B378" s="2">
-        <v>5.8712999999999997</v>
+        <v>5.8810000000000002</v>
       </c>
       <c r="C378" s="2"/>
       <c r="D378" s="2"/>
@@ -7492,10 +7492,10 @@
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B379" s="2">
-        <v>5.8529</v>
+        <v>5.8712999999999997</v>
       </c>
       <c r="C379" s="2"/>
       <c r="D379" s="2"/>
@@ -7505,10 +7505,10 @@
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B380" s="2">
-        <v>5.8811</v>
+        <v>5.8529</v>
       </c>
       <c r="C380" s="2"/>
       <c r="D380" s="2"/>
@@ -7518,10 +7518,10 @@
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B381" s="2">
-        <v>5.8826999999999998</v>
+        <v>5.8811</v>
       </c>
       <c r="C381" s="2"/>
       <c r="D381" s="2"/>
@@ -7531,10 +7531,10 @@
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B382" s="2">
-        <v>5.8684000000000003</v>
+        <v>5.8826999999999998</v>
       </c>
       <c r="C382" s="2"/>
       <c r="D382" s="2"/>
@@ -7544,7 +7544,7 @@
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B383" s="2">
         <v>5.8684000000000003</v>
@@ -7557,7 +7557,7 @@
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B384" s="2">
         <v>5.8684000000000003</v>
@@ -7570,10 +7570,10 @@
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B385" s="2">
-        <v>5.8563999999999998</v>
+        <v>5.8684000000000003</v>
       </c>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
@@ -7583,10 +7583,10 @@
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" s="4" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B386" s="2">
-        <v>5.8978999999999999</v>
+        <v>5.8563999999999998</v>
       </c>
       <c r="C386" s="2"/>
       <c r="D386" s="2"/>
@@ -7596,10 +7596,10 @@
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B387" s="2">
-        <v>5.9191000000000003</v>
+        <v>5.8978999999999999</v>
       </c>
       <c r="C387" s="2"/>
       <c r="D387" s="2"/>
@@ -7609,10 +7609,10 @@
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B388" s="2">
-        <v>5.9292999999999996</v>
+        <v>5.9191000000000003</v>
       </c>
       <c r="C388" s="2"/>
       <c r="D388" s="2"/>
@@ -7622,10 +7622,10 @@
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B389" s="2">
-        <v>5.9151999999999996</v>
+        <v>5.9292999999999996</v>
       </c>
       <c r="C389" s="2"/>
       <c r="D389" s="2"/>
@@ -7635,7 +7635,7 @@
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B390" s="2">
         <v>5.9151999999999996</v>
@@ -7648,7 +7648,7 @@
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B391" s="2">
         <v>5.9151999999999996</v>
@@ -7661,10 +7661,10 @@
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B392" s="2">
-        <v>5.9287999999999998</v>
+        <v>5.9151999999999996</v>
       </c>
       <c r="C392" s="2"/>
       <c r="D392" s="2"/>
@@ -7674,10 +7674,10 @@
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B393" s="2">
-        <v>5.9371</v>
+        <v>5.9287999999999998</v>
       </c>
       <c r="C393" s="2"/>
       <c r="D393" s="2"/>
@@ -7687,10 +7687,10 @@
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B394" s="2">
-        <v>5.9333999999999998</v>
+        <v>5.9371</v>
       </c>
       <c r="C394" s="2"/>
       <c r="D394" s="2"/>
@@ -7700,10 +7700,10 @@
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B395" s="2">
-        <v>5.9405000000000001</v>
+        <v>5.9333999999999998</v>
       </c>
       <c r="C395" s="2"/>
       <c r="D395" s="2"/>
@@ -7713,10 +7713,10 @@
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B396" s="2">
-        <v>5.9715999999999996</v>
+        <v>5.9405000000000001</v>
       </c>
       <c r="C396" s="2"/>
       <c r="D396" s="2"/>
@@ -7726,7 +7726,7 @@
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B397" s="2">
         <v>5.9715999999999996</v>
@@ -7739,7 +7739,7 @@
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B398" s="2">
         <v>5.9715999999999996</v>
@@ -7752,10 +7752,10 @@
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B399" s="2">
-        <v>5.9725999999999999</v>
+        <v>5.9715999999999996</v>
       </c>
       <c r="C399" s="2"/>
       <c r="D399" s="2"/>
@@ -7765,10 +7765,10 @@
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B400" s="2">
-        <v>5.9755000000000003</v>
+        <v>5.9725999999999999</v>
       </c>
       <c r="C400" s="2"/>
       <c r="D400" s="2"/>
@@ -7778,10 +7778,10 @@
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B401" s="2">
-        <v>5.9714</v>
+        <v>5.9755000000000003</v>
       </c>
       <c r="C401" s="2"/>
       <c r="D401" s="2"/>
@@ -7791,10 +7791,10 @@
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B402" s="2">
-        <v>5.976</v>
+        <v>5.9714</v>
       </c>
       <c r="C402" s="2"/>
       <c r="D402" s="2"/>
@@ -7804,10 +7804,10 @@
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B403" s="2">
-        <v>5.9782999999999999</v>
+        <v>5.976</v>
       </c>
       <c r="C403" s="2"/>
       <c r="D403" s="2"/>
@@ -7817,7 +7817,7 @@
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B404" s="2">
         <v>5.9782999999999999</v>
@@ -7830,7 +7830,7 @@
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B405" s="2">
         <v>5.9782999999999999</v>
@@ -7843,10 +7843,10 @@
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B406" s="2">
-        <v>5.9775999999999998</v>
+        <v>5.9782999999999999</v>
       </c>
       <c r="C406" s="2"/>
       <c r="D406" s="2"/>
@@ -7856,10 +7856,10 @@
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B407" s="2">
-        <v>5.9950999999999999</v>
+        <v>5.9775999999999998</v>
       </c>
       <c r="C407" s="2"/>
       <c r="D407" s="2"/>
@@ -7869,10 +7869,10 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B408" s="2">
-        <v>6.0270999999999999</v>
+        <v>5.9950999999999999</v>
       </c>
       <c r="C408" s="2"/>
       <c r="D408" s="2"/>
@@ -7882,10 +7882,10 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B409" s="2">
-        <v>6.0214999999999996</v>
+        <v>6.0270999999999999</v>
       </c>
       <c r="C409" s="2"/>
       <c r="D409" s="2"/>
@@ -7895,10 +7895,10 @@
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B410" s="2">
-        <v>6.0458999999999996</v>
+        <v>6.0214999999999996</v>
       </c>
       <c r="C410" s="2"/>
       <c r="D410" s="2"/>
@@ -7908,7 +7908,7 @@
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B411" s="2">
         <v>6.0458999999999996</v>
@@ -7921,7 +7921,7 @@
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B412" s="2">
         <v>6.0458999999999996</v>
@@ -7934,10 +7934,10 @@
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B413" s="2">
-        <v>6.0469999999999997</v>
+        <v>6.0458999999999996</v>
       </c>
       <c r="C413" s="2"/>
       <c r="D413" s="2"/>
@@ -7947,10 +7947,10 @@
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B414" s="2">
-        <v>6.0350999999999999</v>
+        <v>6.0469999999999997</v>
       </c>
       <c r="C414" s="2"/>
       <c r="D414" s="2"/>
@@ -7960,10 +7960,10 @@
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B415" s="2">
-        <v>6.0578000000000003</v>
+        <v>6.0350999999999999</v>
       </c>
       <c r="C415" s="2"/>
       <c r="D415" s="2"/>
@@ -7973,10 +7973,10 @@
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B416" s="2">
-        <v>6.0580999999999996</v>
+        <v>6.0578000000000003</v>
       </c>
       <c r="C416" s="2"/>
       <c r="D416" s="2"/>
@@ -7986,10 +7986,10 @@
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B417" s="2">
-        <v>6.0823999999999998</v>
+        <v>6.0580999999999996</v>
       </c>
       <c r="C417" s="2"/>
       <c r="D417" s="2"/>
@@ -7999,7 +7999,7 @@
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B418" s="2">
         <v>6.0823999999999998</v>
@@ -8012,7 +8012,7 @@
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B419" s="2">
         <v>6.0823999999999998</v>
@@ -8025,10 +8025,10 @@
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B420" s="2">
-        <v>6.1022999999999996</v>
+        <v>6.0823999999999998</v>
       </c>
       <c r="C420" s="2"/>
       <c r="D420" s="2"/>
@@ -8038,10 +8038,10 @@
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B421" s="2">
-        <v>6.1383000000000001</v>
+        <v>6.1022999999999996</v>
       </c>
       <c r="C421" s="2"/>
       <c r="D421" s="2"/>
@@ -8051,10 +8051,10 @@
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B422" s="2">
-        <v>6.1218000000000004</v>
+        <v>6.1383000000000001</v>
       </c>
       <c r="C422" s="2"/>
       <c r="D422" s="2"/>
@@ -8064,10 +8064,10 @@
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B423" s="2">
-        <v>6.1463000000000001</v>
+        <v>6.1218000000000004</v>
       </c>
       <c r="C423" s="2"/>
       <c r="D423" s="2"/>
@@ -8077,10 +8077,10 @@
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B424" s="2">
-        <v>6.1593</v>
+        <v>6.1463000000000001</v>
       </c>
       <c r="C424" s="2"/>
       <c r="D424" s="2"/>
@@ -8090,7 +8090,7 @@
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B425" s="2">
         <v>6.1593</v>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B426" s="2">
         <v>6.1593</v>
@@ -8116,10 +8116,10 @@
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B427" s="2">
-        <v>6.2259000000000002</v>
+        <v>6.1593</v>
       </c>
       <c r="C427" s="2"/>
       <c r="D427" s="2"/>
@@ -8129,10 +8129,10 @@
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B428" s="2">
-        <v>6.2191999999999998</v>
+        <v>6.2259000000000002</v>
       </c>
       <c r="C428" s="2"/>
       <c r="D428" s="2"/>
@@ -8142,10 +8142,10 @@
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B429" s="2">
-        <v>6.1943000000000001</v>
+        <v>6.2191999999999998</v>
       </c>
       <c r="C429" s="2"/>
       <c r="D429" s="2"/>
@@ -8155,10 +8155,10 @@
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B430" s="2">
-        <v>6.0903999999999998</v>
+        <v>6.1943000000000001</v>
       </c>
       <c r="C430" s="2"/>
       <c r="D430" s="2"/>
@@ -8168,10 +8168,10 @@
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B431" s="2">
-        <v>6.0772000000000004</v>
+        <v>6.0903999999999998</v>
       </c>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
@@ -8181,7 +8181,7 @@
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B432" s="2">
         <v>6.0772000000000004</v>
@@ -8194,7 +8194,7 @@
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B433" s="2">
         <v>6.0772000000000004</v>
@@ -8207,10 +8207,10 @@
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B434" s="2">
-        <v>6.0820999999999996</v>
+        <v>6.0772000000000004</v>
       </c>
       <c r="C434" s="2"/>
       <c r="D434" s="2"/>
@@ -8220,10 +8220,10 @@
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B435" s="2">
-        <v>6.1097999999999999</v>
+        <v>6.0820999999999996</v>
       </c>
       <c r="C435" s="2"/>
       <c r="D435" s="2"/>
@@ -8233,10 +8233,10 @@
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B436" s="2">
-        <v>6.1151</v>
+        <v>6.1097999999999999</v>
       </c>
       <c r="C436" s="2"/>
       <c r="D436" s="2"/>
@@ -8246,10 +8246,10 @@
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B437" s="2">
-        <v>6.1501999999999999</v>
+        <v>6.1151</v>
       </c>
       <c r="C437" s="2"/>
       <c r="D437" s="2"/>
@@ -8259,10 +8259,10 @@
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B438" s="2">
-        <v>6.2263999999999999</v>
+        <v>6.1501999999999999</v>
       </c>
       <c r="C438" s="2"/>
       <c r="D438" s="2"/>
@@ -8272,7 +8272,7 @@
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B439" s="2">
         <v>6.2263999999999999</v>
@@ -8285,7 +8285,7 @@
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B440" s="2">
         <v>6.2263999999999999</v>
@@ -8298,10 +8298,10 @@
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" s="4" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B441" s="2">
-        <v>6.2710999999999997</v>
+        <v>6.2263999999999999</v>
       </c>
       <c r="C441" s="2"/>
       <c r="D441" s="2"/>
@@ -8311,10 +8311,10 @@
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B442" s="2">
-        <v>6.3628</v>
+        <v>6.2710999999999997</v>
       </c>
       <c r="C442" s="2"/>
       <c r="D442" s="2"/>
@@ -8324,10 +8324,10 @@
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B443" s="2">
-        <v>6.4527999999999999</v>
+        <v>6.3628</v>
       </c>
       <c r="C443" s="2"/>
       <c r="D443" s="2"/>
@@ -8337,10 +8337,10 @@
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B444" s="2">
-        <v>6.4512</v>
+        <v>6.4527999999999999</v>
       </c>
       <c r="C444" s="2"/>
       <c r="D444" s="2"/>
@@ -8350,10 +8350,10 @@
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B445" s="2">
-        <v>6.5153999999999996</v>
+        <v>6.4512</v>
       </c>
       <c r="C445" s="2"/>
       <c r="D445" s="2"/>
@@ -8363,7 +8363,7 @@
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B446" s="2">
         <v>6.5153999999999996</v>
@@ -8376,7 +8376,7 @@
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B447" s="2">
         <v>6.5153999999999996</v>
@@ -8389,10 +8389,10 @@
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B448" s="2">
-        <v>6.4839000000000002</v>
+        <v>6.5153999999999996</v>
       </c>
       <c r="C448" s="2"/>
       <c r="D448" s="2"/>
@@ -8402,10 +8402,10 @@
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B449" s="2">
-        <v>6.5864000000000003</v>
+        <v>6.4839000000000002</v>
       </c>
       <c r="C449" s="2"/>
       <c r="D449" s="2"/>
@@ -8415,10 +8415,10 @@
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B450" s="2">
-        <v>6.4943</v>
+        <v>6.5864000000000003</v>
       </c>
       <c r="C450" s="2"/>
       <c r="D450" s="2"/>
@@ -8428,10 +8428,10 @@
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B451" s="2">
-        <v>6.4024000000000001</v>
+        <v>6.4943</v>
       </c>
       <c r="C451" s="2"/>
       <c r="D451" s="2"/>
@@ -8441,10 +8441,10 @@
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B452" s="2">
-        <v>6.4560000000000004</v>
+        <v>6.4024000000000001</v>
       </c>
       <c r="C452" s="2"/>
       <c r="D452" s="2"/>
@@ -8454,7 +8454,7 @@
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B453" s="2">
         <v>6.4560000000000004</v>
@@ -8467,7 +8467,7 @@
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B454" s="2">
         <v>6.4560000000000004</v>
@@ -8480,10 +8480,10 @@
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B455" s="2">
-        <v>6.4345999999999997</v>
+        <v>6.4560000000000004</v>
       </c>
       <c r="C455" s="2"/>
       <c r="D455" s="2"/>
@@ -8493,10 +8493,10 @@
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B456" s="2">
-        <v>6.516</v>
+        <v>6.4345999999999997</v>
       </c>
       <c r="C456" s="2"/>
       <c r="D456" s="2"/>
@@ -8506,10 +8506,10 @@
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B457" s="2">
-        <v>6.5696000000000003</v>
+        <v>6.516</v>
       </c>
       <c r="C457" s="2"/>
       <c r="D457" s="2"/>
@@ -8519,10 +8519,10 @@
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B458" s="2">
-        <v>6.6428000000000003</v>
+        <v>6.5696000000000003</v>
       </c>
       <c r="C458" s="2"/>
       <c r="D458" s="2"/>
@@ -8532,10 +8532,10 @@
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B459" s="2">
-        <v>6.6672000000000002</v>
+        <v>6.6428000000000003</v>
       </c>
       <c r="C459" s="2"/>
       <c r="D459" s="2"/>
@@ -8545,7 +8545,7 @@
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B460" s="2">
         <v>6.6672000000000002</v>
@@ -8558,7 +8558,7 @@
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B461" s="2">
         <v>6.6672000000000002</v>
@@ -8571,10 +8571,10 @@
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B462" s="2">
-        <v>6.6902999999999997</v>
+        <v>6.6672000000000002</v>
       </c>
       <c r="C462" s="2"/>
       <c r="D462" s="2"/>
@@ -8584,10 +8584,10 @@
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B463" s="2">
-        <v>6.7549000000000001</v>
+        <v>6.6902999999999997</v>
       </c>
       <c r="C463" s="2"/>
       <c r="D463" s="2"/>
@@ -8597,10 +8597,10 @@
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B464" s="2">
-        <v>6.7374999999999998</v>
+        <v>6.7549000000000001</v>
       </c>
       <c r="C464" s="2"/>
       <c r="D464" s="2"/>
@@ -8610,10 +8610,10 @@
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B465" s="2">
-        <v>6.7705000000000002</v>
+        <v>6.7374999999999998</v>
       </c>
       <c r="C465" s="2"/>
       <c r="D465" s="2"/>
@@ -8623,10 +8623,10 @@
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B466" s="2">
-        <v>6.7382</v>
+        <v>6.7705000000000002</v>
       </c>
       <c r="C466" s="2"/>
       <c r="D466" s="2"/>
@@ -8636,7 +8636,7 @@
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B467" s="2">
         <v>6.7382</v>
@@ -8649,7 +8649,7 @@
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B468" s="2">
         <v>6.7382</v>
@@ -8662,10 +8662,10 @@
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B469" s="2">
-        <v>6.6877000000000004</v>
+        <v>6.7382</v>
       </c>
       <c r="C469" s="2"/>
       <c r="D469" s="2"/>
@@ -8675,10 +8675,10 @@
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B470" s="2">
-        <v>6.7618</v>
+        <v>6.6877000000000004</v>
       </c>
       <c r="C470" s="2"/>
       <c r="D470" s="2"/>
@@ -8688,10 +8688,10 @@
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B471" s="2">
-        <v>6.7751999999999999</v>
+        <v>6.7618</v>
       </c>
       <c r="C471" s="2"/>
       <c r="D471" s="2"/>
@@ -8701,10 +8701,10 @@
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B472" s="2">
-        <v>6.8505000000000003</v>
+        <v>6.7751999999999999</v>
       </c>
       <c r="C472" s="2"/>
       <c r="D472" s="2"/>
@@ -8714,10 +8714,10 @@
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B473" s="2">
-        <v>6.9073000000000002</v>
+        <v>6.8505000000000003</v>
       </c>
       <c r="C473" s="2"/>
       <c r="D473" s="2"/>
@@ -8727,7 +8727,7 @@
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B474" s="2">
         <v>6.9073000000000002</v>
@@ -8740,7 +8740,7 @@
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B475" s="2">
         <v>6.9073000000000002</v>
@@ -8753,10 +8753,10 @@
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" s="4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B476" s="2">
-        <v>6.9130000000000003</v>
+        <v>6.9073000000000002</v>
       </c>
       <c r="C476" s="2"/>
       <c r="D476" s="2"/>
@@ -8766,10 +8766,10 @@
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B477" s="2">
-        <v>6.9081999999999999</v>
+        <v>6.9130000000000003</v>
       </c>
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
@@ -8779,10 +8779,10 @@
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B478" s="2">
-        <v>6.9592999999999998</v>
+        <v>6.9081999999999999</v>
       </c>
       <c r="C478" s="2"/>
       <c r="D478" s="2"/>
@@ -8792,7 +8792,7 @@
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B479" s="2">
         <v>6.9592999999999998</v>
@@ -8805,10 +8805,10 @@
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B480" s="2">
-        <v>6.9707999999999997</v>
+        <v>6.9592999999999998</v>
       </c>
       <c r="C480" s="2"/>
       <c r="D480" s="2"/>
@@ -8818,7 +8818,7 @@
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B481" s="2">
         <v>6.9707999999999997</v>
@@ -8831,7 +8831,7 @@
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B482" s="2">
         <v>6.9707999999999997</v>
@@ -8844,10 +8844,10 @@
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B483" s="2">
-        <v>6.9588999999999999</v>
+        <v>6.9707999999999997</v>
       </c>
       <c r="C483" s="2"/>
       <c r="D483" s="2"/>
@@ -8857,10 +8857,10 @@
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B484" s="2">
-        <v>6.9675000000000002</v>
+        <v>6.9588999999999999</v>
       </c>
       <c r="C484" s="2"/>
       <c r="D484" s="2"/>
@@ -8870,10 +8870,10 @@
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B485" s="2">
-        <v>6.9881000000000002</v>
+        <v>6.9675000000000002</v>
       </c>
       <c r="C485" s="2"/>
       <c r="D485" s="2"/>
@@ -8883,10 +8883,10 @@
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B486" s="2">
-        <v>6.9786999999999999</v>
+        <v>6.9881000000000002</v>
       </c>
       <c r="C486" s="2"/>
       <c r="D486" s="2"/>
@@ -8896,7 +8896,7 @@
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B487" s="2">
         <v>6.9786999999999999</v>
@@ -8909,7 +8909,7 @@
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B488" s="2">
         <v>6.9786999999999999</v>
@@ -8922,7 +8922,7 @@
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B489" s="2">
         <v>6.9786999999999999</v>
@@ -8935,10 +8935,10 @@
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B490" s="2">
-        <v>6.9718999999999998</v>
+        <v>6.9786999999999999</v>
       </c>
       <c r="C490" s="2"/>
       <c r="D490" s="2"/>
@@ -8948,10 +8948,10 @@
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B491" s="2">
-        <v>7.0151000000000003</v>
+        <v>6.9718999999999998</v>
       </c>
       <c r="C491" s="2"/>
       <c r="D491" s="2"/>
@@ -8961,10 +8961,10 @@
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B492" s="2">
-        <v>7.0549999999999997</v>
+        <v>7.0151000000000003</v>
       </c>
       <c r="C492" s="2"/>
       <c r="D492" s="2"/>
@@ -8974,10 +8974,10 @@
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B493" s="2">
-        <v>7.1334</v>
+        <v>7.0549999999999997</v>
       </c>
       <c r="C493" s="2"/>
       <c r="D493" s="2"/>
@@ -8987,10 +8987,10 @@
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B494" s="2">
-        <v>7.2209000000000003</v>
+        <v>7.1334</v>
       </c>
       <c r="C494" s="2"/>
       <c r="D494" s="2"/>
@@ -9000,7 +9000,7 @@
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B495" s="2">
         <v>7.2209000000000003</v>
@@ -9013,7 +9013,7 @@
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B496" s="2">
         <v>7.2209000000000003</v>
@@ -9026,10 +9026,10 @@
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B497" s="2">
-        <v>7.0960000000000001</v>
+        <v>7.2209000000000003</v>
       </c>
       <c r="C497" s="2"/>
       <c r="D497" s="2"/>
@@ -9039,10 +9039,10 @@
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B498" s="2">
-        <v>7.0675999999999997</v>
+        <v>7.0960000000000001</v>
       </c>
       <c r="C498" s="2"/>
       <c r="D498" s="2"/>
@@ -9052,10 +9052,10 @@
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B499" s="2">
-        <v>7.0121000000000002</v>
+        <v>7.0675999999999997</v>
       </c>
       <c r="C499" s="2"/>
       <c r="D499" s="2"/>
@@ -9065,10 +9065,10 @@
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B500" s="2">
-        <v>6.9789000000000003</v>
+        <v>7.0121000000000002</v>
       </c>
       <c r="C500" s="2"/>
       <c r="D500" s="2"/>
@@ -9078,10 +9078,10 @@
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B501" s="2">
-        <v>6.9542999999999999</v>
+        <v>6.9789000000000003</v>
       </c>
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
@@ -9091,7 +9091,7 @@
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B502" s="2">
         <v>6.9542999999999999</v>
@@ -9104,7 +9104,7 @@
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B503" s="2">
         <v>6.9542999999999999</v>
@@ -9117,10 +9117,10 @@
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B504" s="2">
-        <v>6.9040999999999997</v>
+        <v>6.9542999999999999</v>
       </c>
       <c r="C504" s="2"/>
       <c r="D504" s="2"/>
@@ -9130,7 +9130,7 @@
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B505" s="2">
         <v>6.9040999999999997</v>
@@ -9143,10 +9143,10 @@
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B506" s="2">
-        <v>6.8596000000000004</v>
+        <v>6.9040999999999997</v>
       </c>
       <c r="C506" s="2"/>
       <c r="D506" s="2"/>
@@ -9156,10 +9156,10 @@
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B507" s="2">
-        <v>6.7840999999999996</v>
+        <v>6.8596000000000004</v>
       </c>
       <c r="C507" s="2"/>
       <c r="D507" s="2"/>
@@ -9169,10 +9169,10 @@
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B508" s="2">
-        <v>6.7882999999999996</v>
+        <v>6.7840999999999996</v>
       </c>
       <c r="C508" s="2"/>
       <c r="D508" s="2"/>
@@ -9182,7 +9182,7 @@
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B509" s="2">
         <v>6.7882999999999996</v>
@@ -9195,7 +9195,7 @@
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B510" s="2">
         <v>6.7882999999999996</v>
@@ -9208,7 +9208,7 @@
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B511" s="2">
         <v>6.7882999999999996</v>
@@ -9221,7 +9221,7 @@
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B512" s="2">
         <v>6.7882999999999996</v>
@@ -9234,10 +9234,10 @@
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B513" s="2">
-        <v>6.7916999999999996</v>
+        <v>6.7882999999999996</v>
       </c>
       <c r="C513" s="2"/>
       <c r="D513" s="2"/>
@@ -9247,10 +9247,10 @@
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B514" s="2">
-        <v>6.7606999999999999</v>
+        <v>6.7916999999999996</v>
       </c>
       <c r="C514" s="2"/>
       <c r="D514" s="2"/>
@@ -9260,10 +9260,10 @@
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B515" s="2">
-        <v>6.7893999999999997</v>
+        <v>6.7606999999999999</v>
       </c>
       <c r="C515" s="2"/>
       <c r="D515" s="2"/>
@@ -9273,7 +9273,7 @@
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B516" s="2">
         <v>6.7893999999999997</v>
@@ -9286,7 +9286,7 @@
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B517" s="2">
         <v>6.7893999999999997</v>
@@ -9299,10 +9299,10 @@
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B518" s="2">
-        <v>6.8137999999999996</v>
+        <v>6.7893999999999997</v>
       </c>
       <c r="C518" s="2"/>
       <c r="D518" s="2"/>
@@ -9312,10 +9312,10 @@
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B519" s="2">
-        <v>6.8059000000000003</v>
+        <v>6.8137999999999996</v>
       </c>
       <c r="C519" s="2"/>
       <c r="D519" s="2"/>
@@ -9325,10 +9325,10 @@
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B520" s="2">
-        <v>6.7816999999999998</v>
+        <v>6.8059000000000003</v>
       </c>
       <c r="C520" s="2"/>
       <c r="D520" s="2"/>
@@ -9338,10 +9338,10 @@
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B521" s="2">
-        <v>6.7308000000000003</v>
+        <v>6.7816999999999998</v>
       </c>
       <c r="C521" s="2"/>
       <c r="D521" s="2"/>
@@ -9351,10 +9351,10 @@
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B522" s="2">
-        <v>6.7476000000000003</v>
+        <v>6.7308000000000003</v>
       </c>
       <c r="C522" s="2"/>
       <c r="D522" s="2"/>
@@ -9364,7 +9364,7 @@
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B523" s="2">
         <v>6.7476000000000003</v>
@@ -9377,7 +9377,7 @@
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B524" s="2">
         <v>6.7476000000000003</v>
@@ -9390,10 +9390,10 @@
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B525" s="2">
-        <v>6.7572999999999999</v>
+        <v>6.7476000000000003</v>
       </c>
       <c r="C525" s="2"/>
       <c r="D525" s="2"/>
@@ -9403,10 +9403,10 @@
     </row>
     <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B526" s="2">
-        <v>6.7713999999999999</v>
+        <v>6.7572999999999999</v>
       </c>
       <c r="C526" s="2"/>
       <c r="D526" s="2"/>
@@ -9416,10 +9416,10 @@
     </row>
     <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B527" s="2">
-        <v>6.7827999999999999</v>
+        <v>6.7713999999999999</v>
       </c>
       <c r="C527" s="2"/>
       <c r="D527" s="2"/>
@@ -9429,10 +9429,10 @@
     </row>
     <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B528" s="2">
-        <v>6.7777000000000003</v>
+        <v>6.7827999999999999</v>
       </c>
       <c r="C528" s="2"/>
       <c r="D528" s="2"/>
@@ -9442,10 +9442,10 @@
     </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B529" s="2">
-        <v>6.7827000000000002</v>
+        <v>6.7777000000000003</v>
       </c>
       <c r="C529" s="2"/>
       <c r="D529" s="2"/>
@@ -9455,7 +9455,7 @@
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B530" s="2">
         <v>6.7827000000000002</v>
@@ -9468,7 +9468,7 @@
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B531" s="2">
         <v>6.7827000000000002</v>
@@ -9481,10 +9481,10 @@
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B532" s="2">
-        <v>6.8141999999999996</v>
+        <v>6.7827000000000002</v>
       </c>
       <c r="C532" s="2"/>
       <c r="D532" s="2"/>
@@ -9494,10 +9494,10 @@
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B533" s="2">
-        <v>6.8220000000000001</v>
+        <v>6.8141999999999996</v>
       </c>
       <c r="C533" s="2"/>
       <c r="D533" s="2"/>
@@ -9507,10 +9507,10 @@
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B534" s="2">
-        <v>6.8254000000000001</v>
+        <v>6.8220000000000001</v>
       </c>
       <c r="C534" s="2"/>
       <c r="D534" s="2"/>
@@ -9520,10 +9520,10 @@
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B535" s="2">
-        <v>6.8333000000000004</v>
+        <v>6.8254000000000001</v>
       </c>
       <c r="C535" s="2"/>
       <c r="D535" s="2"/>
@@ -9533,10 +9533,10 @@
     </row>
     <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B536" s="2">
-        <v>6.8449999999999998</v>
+        <v>6.8333000000000004</v>
       </c>
       <c r="C536" s="2"/>
       <c r="D536" s="2"/>
@@ -9546,7 +9546,7 @@
     </row>
     <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B537" s="2">
         <v>6.8449999999999998</v>
@@ -9559,7 +9559,7 @@
     </row>
     <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B538" s="2">
         <v>6.8449999999999998</v>
@@ -9572,10 +9572,10 @@
     </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B539" s="2">
-        <v>6.8440000000000003</v>
+        <v>6.8449999999999998</v>
       </c>
       <c r="C539" s="2"/>
       <c r="D539" s="2"/>
@@ -9585,10 +9585,10 @@
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B540" s="2">
-        <v>6.8422000000000001</v>
+        <v>6.8440000000000003</v>
       </c>
       <c r="C540" s="2"/>
       <c r="D540" s="2"/>
@@ -9598,10 +9598,10 @@
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B541" s="2">
-        <v>6.8440000000000003</v>
+        <v>6.8422000000000001</v>
       </c>
       <c r="C541" s="2"/>
       <c r="D541" s="2"/>
@@ -9611,10 +9611,10 @@
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="4" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B542" s="2">
-        <v>6.8452000000000002</v>
+        <v>6.8440000000000003</v>
       </c>
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
@@ -9624,10 +9624,10 @@
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B543" s="2">
-        <v>6.8433999999999999</v>
+        <v>6.8452000000000002</v>
       </c>
       <c r="C543" s="2"/>
       <c r="D543" s="2"/>
@@ -9637,7 +9637,7 @@
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B544" s="2">
         <v>6.8433999999999999</v>
@@ -9650,7 +9650,7 @@
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B545" s="2">
         <v>6.8433999999999999</v>
@@ -9663,10 +9663,10 @@
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B546" s="2">
-        <v>6.8417000000000003</v>
+        <v>6.8433999999999999</v>
       </c>
       <c r="C546" s="2"/>
       <c r="D546" s="2"/>
@@ -9676,10 +9676,10 @@
     </row>
     <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B547" s="2">
-        <v>6.8422000000000001</v>
+        <v>6.8417000000000003</v>
       </c>
       <c r="C547" s="2"/>
       <c r="D547" s="2"/>
@@ -9689,10 +9689,10 @@
     </row>
     <row r="548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A548" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B548" s="2">
-        <v>6.8432000000000004</v>
+        <v>6.8422000000000001</v>
       </c>
       <c r="C548" s="2"/>
       <c r="D548" s="2"/>
@@ -9702,7 +9702,7 @@
     </row>
     <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B549" s="2">
         <v>6.8432000000000004</v>
@@ -9715,10 +9715,10 @@
     </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A550" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B550" s="2">
-        <v>6.8428000000000004</v>
+        <v>6.8432000000000004</v>
       </c>
       <c r="C550" s="2"/>
       <c r="D550" s="2"/>
@@ -9728,7 +9728,7 @@
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B551" s="2">
         <v>6.8428000000000004</v>
@@ -9741,7 +9741,7 @@
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B552" s="2">
         <v>6.8428000000000004</v>
@@ -9754,10 +9754,10 @@
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B553" s="2">
-        <v>6.8422000000000001</v>
+        <v>6.8428000000000004</v>
       </c>
       <c r="C553" s="2"/>
       <c r="D553" s="2"/>
@@ -9767,10 +9767,10 @@
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B554" s="2">
-        <v>6.8467000000000002</v>
+        <v>6.8422000000000001</v>
       </c>
       <c r="C554" s="2"/>
       <c r="D554" s="2"/>
@@ -9780,10 +9780,10 @@
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B555" s="2">
-        <v>6.8518999999999997</v>
+        <v>6.8467000000000002</v>
       </c>
       <c r="C555" s="2"/>
       <c r="D555" s="2"/>
@@ -9793,10 +9793,10 @@
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B556" s="2">
-        <v>6.8522999999999996</v>
+        <v>6.8518999999999997</v>
       </c>
       <c r="C556" s="2"/>
       <c r="D556" s="2"/>
@@ -9806,10 +9806,10 @@
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B557" s="2">
-        <v>6.8529999999999998</v>
+        <v>6.8522999999999996</v>
       </c>
       <c r="C557" s="2"/>
       <c r="D557" s="2"/>
@@ -9819,7 +9819,7 @@
     </row>
     <row r="558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A558" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B558" s="2">
         <v>6.8529999999999998</v>
@@ -9832,7 +9832,7 @@
     </row>
     <row r="559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A559" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B559" s="2">
         <v>6.8529999999999998</v>
@@ -9845,10 +9845,10 @@
     </row>
     <row r="560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A560" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B560" s="2">
-        <v>6.8513999999999999</v>
+        <v>6.8529999999999998</v>
       </c>
       <c r="C560" s="2"/>
       <c r="D560" s="2"/>
@@ -9858,10 +9858,10 @@
     </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A561" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B561" s="2">
-        <v>6.8528000000000002</v>
+        <v>6.8513999999999999</v>
       </c>
       <c r="C561" s="2"/>
       <c r="D561" s="2"/>
@@ -9871,7 +9871,7 @@
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B562" s="2">
         <v>6.8528000000000002</v>
@@ -9884,10 +9884,10 @@
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B563" s="2">
-        <v>6.8524000000000003</v>
+        <v>6.8528000000000002</v>
       </c>
       <c r="C563" s="2"/>
       <c r="D563" s="2"/>
@@ -9897,10 +9897,10 @@
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B564" s="2">
-        <v>6.8449999999999998</v>
+        <v>6.8524000000000003</v>
       </c>
       <c r="C564" s="2"/>
       <c r="D564" s="2"/>
@@ -9910,7 +9910,7 @@
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B565" s="2">
         <v>6.8449999999999998</v>
@@ -9923,7 +9923,7 @@
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B566" s="2">
         <v>6.8449999999999998</v>
@@ -9936,10 +9936,10 @@
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B567" s="2">
-        <v>6.8438999999999997</v>
+        <v>6.8449999999999998</v>
       </c>
       <c r="C567" s="2"/>
       <c r="D567" s="2"/>
@@ -9949,10 +9949,10 @@
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B568" s="2">
-        <v>6.8437999999999999</v>
+        <v>6.8438999999999997</v>
       </c>
       <c r="C568" s="2"/>
       <c r="D568" s="2"/>
@@ -9962,10 +9962,10 @@
     </row>
     <row r="569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A569" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B569" s="2">
-        <v>6.8429000000000002</v>
+        <v>6.8437999999999999</v>
       </c>
       <c r="C569" s="2"/>
       <c r="D569" s="2"/>
@@ -9975,10 +9975,10 @@
     </row>
     <row r="570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A570" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B570" s="2">
-        <v>6.8372000000000002</v>
+        <v>6.8429000000000002</v>
       </c>
       <c r="C570" s="2"/>
       <c r="D570" s="2"/>
@@ -9988,10 +9988,10 @@
     </row>
     <row r="571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A571" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B571" s="2">
-        <v>6.8348000000000004</v>
+        <v>6.8372000000000002</v>
       </c>
       <c r="C571" s="2"/>
       <c r="D571" s="2"/>
@@ -10001,7 +10001,7 @@
     </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A572" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B572" s="2">
         <v>6.8348000000000004</v>
@@ -10014,7 +10014,7 @@
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B573" s="2">
         <v>6.8348000000000004</v>
@@ -10027,10 +10027,10 @@
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B574" s="2">
-        <v>6.8353000000000002</v>
+        <v>6.8348000000000004</v>
       </c>
       <c r="C574" s="2"/>
       <c r="D574" s="2"/>
@@ -10040,10 +10040,10 @@
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B575" s="2">
-        <v>6.8364000000000003</v>
+        <v>6.8353000000000002</v>
       </c>
       <c r="C575" s="2"/>
       <c r="D575" s="2"/>
@@ -10053,10 +10053,10 @@
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B576" s="2">
-        <v>6.8845999999999998</v>
+        <v>6.8364000000000003</v>
       </c>
       <c r="C576" s="2"/>
       <c r="D576" s="2"/>
@@ -10066,10 +10066,10 @@
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B577" s="2">
-        <v>6.9371999999999998</v>
+        <v>6.8845999999999998</v>
       </c>
       <c r="C577" s="2"/>
       <c r="D577" s="2"/>
@@ -10079,7 +10079,7 @@
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B578" s="2">
         <v>6.9371999999999998</v>
@@ -10092,7 +10092,7 @@
     </row>
     <row r="579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A579" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B579" s="2">
         <v>6.9371999999999998</v>
@@ -10105,7 +10105,7 @@
     </row>
     <row r="580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A580" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B580" s="2">
         <v>6.9371999999999998</v>
@@ -10118,7 +10118,7 @@
     </row>
     <row r="581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A581" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B581" s="2">
         <v>6.9371999999999998</v>
@@ -10131,7 +10131,7 @@
     </row>
     <row r="582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A582" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B582" s="2">
         <v>6.9371999999999998</v>
@@ -10144,10 +10144,10 @@
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B583" s="2">
-        <v>6.9333999999999998</v>
+        <v>6.9371999999999998</v>
       </c>
       <c r="C583" s="2"/>
       <c r="D583" s="2"/>
@@ -10157,10 +10157,10 @@
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B584" s="2">
-        <v>6.9871999999999996</v>
+        <v>6.9333999999999998</v>
       </c>
       <c r="C584" s="2"/>
       <c r="D584" s="2"/>
@@ -10170,10 +10170,10 @@
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B585" s="2">
-        <v>7.1593</v>
+        <v>6.9871999999999996</v>
       </c>
       <c r="C585" s="2"/>
       <c r="D585" s="2"/>
@@ -10183,7 +10183,7 @@
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B586" s="2">
         <v>7.1593</v>
@@ -10196,7 +10196,7 @@
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B587" s="2">
         <v>7.1593</v>
@@ -10209,10 +10209,10 @@
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B588" s="2">
-        <v>7.2660999999999998</v>
+        <v>7.1593</v>
       </c>
       <c r="C588" s="2"/>
       <c r="D588" s="2"/>
@@ -10222,10 +10222,10 @@
     </row>
     <row r="589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A589" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B589" s="2">
-        <v>7.2995999999999999</v>
+        <v>7.2660999999999998</v>
       </c>
       <c r="C589" s="2"/>
       <c r="D589" s="2"/>
@@ -10235,10 +10235,10 @@
     </row>
     <row r="590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A590" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B590" s="2">
-        <v>7.2483000000000004</v>
+        <v>7.2995999999999999</v>
       </c>
       <c r="C590" s="2"/>
       <c r="D590" s="2"/>
@@ -10248,10 +10248,10 @@
     </row>
     <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B591" s="2">
-        <v>7.2865000000000002</v>
+        <v>7.2483000000000004</v>
       </c>
       <c r="C591" s="2"/>
       <c r="D591" s="2"/>
@@ -10261,10 +10261,10 @@
     </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A592" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B592" s="2">
-        <v>7.3147000000000002</v>
+        <v>7.2865000000000002</v>
       </c>
       <c r="C592" s="2"/>
       <c r="D592" s="2"/>
@@ -10274,7 +10274,7 @@
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B593" s="2">
         <v>7.3147000000000002</v>
@@ -10287,7 +10287,7 @@
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B594" s="2">
         <v>7.3147000000000002</v>
@@ -10300,10 +10300,10 @@
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B595" s="2">
-        <v>7.3445</v>
+        <v>7.3147000000000002</v>
       </c>
       <c r="C595" s="2"/>
       <c r="D595" s="2"/>
@@ -10313,10 +10313,10 @@
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B596" s="2">
-        <v>7.3677000000000001</v>
+        <v>7.3445</v>
       </c>
       <c r="C596" s="2"/>
       <c r="D596" s="2"/>
@@ -10326,10 +10326,10 @@
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B597" s="2">
-        <v>7.3678999999999997</v>
+        <v>7.3677000000000001</v>
       </c>
       <c r="C597" s="2"/>
       <c r="D597" s="2"/>
@@ -10339,10 +10339,10 @@
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A598" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B598" s="2">
-        <v>7.3476999999999997</v>
+        <v>7.3678999999999997</v>
       </c>
       <c r="C598" s="2"/>
       <c r="D598" s="2"/>
@@ -10352,10 +10352,10 @@
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A599" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B599" s="2">
-        <v>7.2952000000000004</v>
+        <v>7.3476999999999997</v>
       </c>
       <c r="C599" s="2"/>
       <c r="D599" s="2"/>
@@ -10365,7 +10365,7 @@
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B600" s="2">
         <v>7.2952000000000004</v>
@@ -10378,7 +10378,7 @@
     </row>
     <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B601" s="2">
         <v>7.2952000000000004</v>
@@ -10391,10 +10391,10 @@
     </row>
     <row r="602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A602" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B602" s="2">
-        <v>7.2156000000000002</v>
+        <v>7.2952000000000004</v>
       </c>
       <c r="C602" s="2"/>
       <c r="D602" s="2"/>
@@ -10404,10 +10404,10 @@
     </row>
     <row r="603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A603" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B603" s="2">
-        <v>7.3372000000000002</v>
+        <v>7.2156000000000002</v>
       </c>
       <c r="C603" s="2"/>
       <c r="D603" s="2"/>
@@ -10417,10 +10417,10 @@
     </row>
     <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B604" s="2">
-        <v>7.3673999999999999</v>
+        <v>7.3372000000000002</v>
       </c>
       <c r="C604" s="2"/>
       <c r="D604" s="2"/>
@@ -10430,10 +10430,10 @@
     </row>
     <row r="605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A605" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B605" s="2">
-        <v>7.3459000000000003</v>
+        <v>7.3673999999999999</v>
       </c>
       <c r="C605" s="2"/>
       <c r="D605" s="2"/>
@@ -10443,10 +10443,10 @@
     </row>
     <row r="606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A606" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B606" s="2">
-        <v>7.3174000000000001</v>
+        <v>7.3459000000000003</v>
       </c>
       <c r="C606" s="2"/>
       <c r="D606" s="2"/>
@@ -10456,7 +10456,7 @@
     </row>
     <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B607" s="2">
         <v>7.3174000000000001</v>
@@ -10469,7 +10469,7 @@
     </row>
     <row r="608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A608" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B608" s="2">
         <v>7.3174000000000001</v>
@@ -10482,10 +10482,10 @@
     </row>
     <row r="609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A609" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B609" s="2">
-        <v>7.3049999999999997</v>
+        <v>7.3174000000000001</v>
       </c>
       <c r="C609" s="2"/>
       <c r="D609" s="2"/>
@@ -10495,10 +10495,10 @@
     </row>
     <row r="610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A610" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B610" s="2">
-        <v>7.3261000000000003</v>
+        <v>7.3049999999999997</v>
       </c>
       <c r="C610" s="2"/>
       <c r="D610" s="2"/>
@@ -10508,10 +10508,10 @@
     </row>
     <row r="611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A611" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B611" s="2">
-        <v>7.3421000000000003</v>
+        <v>7.3261000000000003</v>
       </c>
       <c r="C611" s="2"/>
       <c r="D611" s="2"/>
@@ -10521,10 +10521,10 @@
     </row>
     <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B612" s="2">
-        <v>7.3563000000000001</v>
+        <v>7.3421000000000003</v>
       </c>
       <c r="C612" s="2"/>
       <c r="D612" s="2"/>
@@ -10534,10 +10534,10 @@
     </row>
     <row r="613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A613" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B613" s="2">
-        <v>7.3994</v>
+        <v>7.3563000000000001</v>
       </c>
       <c r="C613" s="2"/>
       <c r="D613" s="2"/>
@@ -10547,7 +10547,7 @@
     </row>
     <row r="614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A614" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B614" s="2">
         <v>7.3994</v>
@@ -10560,7 +10560,7 @@
     </row>
     <row r="615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A615" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B615" s="2">
         <v>7.3994</v>
@@ -10573,10 +10573,10 @@
     </row>
     <row r="616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A616" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B616" s="2">
-        <v>7.4132999999999996</v>
+        <v>7.3994</v>
       </c>
       <c r="C616" s="2"/>
       <c r="D616" s="2"/>
@@ -10586,10 +10586,10 @@
     </row>
     <row r="617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A617" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B617" s="2">
-        <v>7.4348999999999998</v>
+        <v>7.4132999999999996</v>
       </c>
       <c r="C617" s="2"/>
       <c r="D617" s="2"/>
@@ -10599,10 +10599,10 @@
     </row>
     <row r="618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A618" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B618" s="2">
-        <v>7.4537000000000004</v>
+        <v>7.4348999999999998</v>
       </c>
       <c r="C618" s="2"/>
       <c r="D618" s="2"/>
@@ -10612,10 +10612,10 @@
     </row>
     <row r="619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A619" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B619" s="2">
-        <v>7.4669999999999996</v>
+        <v>7.4537000000000004</v>
       </c>
       <c r="C619" s="2"/>
       <c r="D619" s="2"/>
@@ -10625,10 +10625,10 @@
     </row>
     <row r="620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A620" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B620" s="2">
-        <v>7.4553000000000003</v>
+        <v>7.4669999999999996</v>
       </c>
       <c r="C620" s="2"/>
       <c r="D620" s="2"/>
@@ -10638,7 +10638,7 @@
     </row>
     <row r="621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A621" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B621" s="2">
         <v>7.4553000000000003</v>
@@ -10651,7 +10651,7 @@
     </row>
     <row r="622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A622" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B622" s="2">
         <v>7.4553000000000003</v>
@@ -10664,10 +10664,10 @@
     </row>
     <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B623" s="2">
-        <v>7.4396000000000004</v>
+        <v>7.4553000000000003</v>
       </c>
       <c r="C623" s="2"/>
       <c r="D623" s="2"/>
@@ -10677,10 +10677,10 @@
     </row>
     <row r="624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A624" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B624" s="2">
-        <v>7.4688999999999997</v>
+        <v>7.4396000000000004</v>
       </c>
       <c r="C624" s="2"/>
       <c r="D624" s="2"/>
@@ -10690,10 +10690,10 @@
     </row>
     <row r="625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A625" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B625" s="2">
-        <v>7.4668000000000001</v>
+        <v>7.4688999999999997</v>
       </c>
       <c r="C625" s="2"/>
       <c r="D625" s="2"/>
@@ -10703,10 +10703,10 @@
     </row>
     <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B626" s="2">
-        <v>7.4678000000000004</v>
+        <v>7.4668000000000001</v>
       </c>
       <c r="C626" s="2"/>
       <c r="D626" s="2"/>
@@ -10716,10 +10716,10 @@
     </row>
     <row r="627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A627" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B627" s="2">
-        <v>7.5152000000000001</v>
+        <v>7.4678000000000004</v>
       </c>
       <c r="C627" s="2"/>
       <c r="D627" s="2"/>
@@ -10729,7 +10729,7 @@
     </row>
     <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B628" s="2">
         <v>7.5152000000000001</v>
@@ -10742,7 +10742,7 @@
     </row>
     <row r="629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A629" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B629" s="2">
         <v>7.5152000000000001</v>
@@ -10755,10 +10755,10 @@
     </row>
     <row r="630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A630" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B630" s="2">
-        <v>7.5343999999999998</v>
+        <v>7.5152000000000001</v>
       </c>
       <c r="C630" s="2"/>
       <c r="D630" s="2"/>
@@ -10768,10 +10768,10 @@
     </row>
     <row r="631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A631" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B631" s="2">
-        <v>7.5720000000000001</v>
+        <v>7.5343999999999998</v>
       </c>
       <c r="C631" s="2"/>
       <c r="D631" s="2"/>
@@ -10781,10 +10781,10 @@
     </row>
     <row r="632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A632" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B632" s="2">
-        <v>7.6250999999999998</v>
+        <v>7.5720000000000001</v>
       </c>
       <c r="C632" s="2"/>
       <c r="D632" s="2"/>
@@ -10794,10 +10794,10 @@
     </row>
     <row r="633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A633" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B633" s="2">
-        <v>7.657</v>
+        <v>7.6250999999999998</v>
       </c>
       <c r="C633" s="2"/>
       <c r="D633" s="2"/>
@@ -10807,10 +10807,10 @@
     </row>
     <row r="634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A634" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B634" s="2">
-        <v>7.6630000000000003</v>
+        <v>7.657</v>
       </c>
       <c r="C634" s="2"/>
       <c r="D634" s="2"/>
@@ -10820,7 +10820,7 @@
     </row>
     <row r="635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A635" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B635" s="2">
         <v>7.6630000000000003</v>
@@ -10833,7 +10833,7 @@
     </row>
     <row r="636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A636" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B636" s="2">
         <v>7.6630000000000003</v>
@@ -10846,10 +10846,10 @@
     </row>
     <row r="637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A637" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B637" s="2">
-        <v>7.5545999999999998</v>
+        <v>7.6630000000000003</v>
       </c>
       <c r="C637" s="2"/>
       <c r="D637" s="2"/>
@@ -10859,10 +10859,10 @@
     </row>
     <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B638" s="2">
-        <v>7.7507000000000001</v>
+        <v>7.5545999999999998</v>
       </c>
       <c r="C638" s="2"/>
       <c r="D638" s="2"/>
@@ -10872,10 +10872,10 @@
     </row>
     <row r="639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A639" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B639" s="2">
-        <v>7.8079999999999998</v>
+        <v>7.7507000000000001</v>
       </c>
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
@@ -10885,10 +10885,10 @@
     </row>
     <row r="640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A640" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B640" s="2">
-        <v>7.7522000000000002</v>
+        <v>7.8079999999999998</v>
       </c>
       <c r="C640" s="2"/>
       <c r="D640" s="2"/>
@@ -10898,10 +10898,10 @@
     </row>
     <row r="641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A641" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B641" s="2">
-        <v>7.6946000000000003</v>
+        <v>7.7522000000000002</v>
       </c>
       <c r="C641" s="2"/>
       <c r="D641" s="2"/>
@@ -10911,7 +10911,7 @@
     </row>
     <row r="642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A642" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B642" s="2">
         <v>7.6946000000000003</v>
@@ -10924,7 +10924,7 @@
     </row>
     <row r="643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A643" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B643" s="2">
         <v>7.6946000000000003</v>
@@ -10937,10 +10937,10 @@
     </row>
     <row r="644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A644" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B644" s="2">
-        <v>7.7287999999999997</v>
+        <v>7.6946000000000003</v>
       </c>
       <c r="C644" s="2"/>
       <c r="D644" s="2"/>
@@ -10950,10 +10950,10 @@
     </row>
     <row r="645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A645" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B645" s="2">
-        <v>7.7306999999999997</v>
+        <v>7.7287999999999997</v>
       </c>
       <c r="C645" s="2"/>
       <c r="D645" s="2"/>
@@ -10963,10 +10963,10 @@
     </row>
     <row r="646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A646" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B646" s="2">
-        <v>7.7451999999999996</v>
+        <v>7.7306999999999997</v>
       </c>
       <c r="C646" s="2"/>
       <c r="D646" s="2"/>
@@ -10976,10 +10976,10 @@
     </row>
     <row r="647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A647" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B647" s="2">
-        <v>7.8266999999999998</v>
+        <v>7.7451999999999996</v>
       </c>
       <c r="C647" s="2"/>
       <c r="D647" s="2"/>
@@ -10989,10 +10989,10 @@
     </row>
     <row r="648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A648" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B648" s="2">
-        <v>7.8930999999999996</v>
+        <v>7.8266999999999998</v>
       </c>
       <c r="C648" s="2"/>
       <c r="D648" s="2"/>
@@ -11002,7 +11002,7 @@
     </row>
     <row r="649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A649" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B649" s="2">
         <v>7.8930999999999996</v>
@@ -11015,7 +11015,7 @@
     </row>
     <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B650" s="2">
         <v>7.8930999999999996</v>
@@ -11028,10 +11028,10 @@
     </row>
     <row r="651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A651" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B651" s="2">
-        <v>7.9071999999999996</v>
+        <v>7.8930999999999996</v>
       </c>
       <c r="C651" s="2"/>
       <c r="D651" s="2"/>
@@ -11041,10 +11041,10 @@
     </row>
     <row r="652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A652" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B652" s="2">
-        <v>7.8673000000000002</v>
+        <v>7.9071999999999996</v>
       </c>
       <c r="C652" s="2"/>
       <c r="D652" s="2"/>
@@ -11054,10 +11054,10 @@
     </row>
     <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B653" s="2">
-        <v>7.8777999999999997</v>
+        <v>7.8673000000000002</v>
       </c>
       <c r="C653" s="2"/>
       <c r="D653" s="2"/>
@@ -11067,10 +11067,10 @@
     </row>
     <row r="654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A654" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B654" s="2">
-        <v>7.9204999999999997</v>
+        <v>7.8777999999999997</v>
       </c>
       <c r="C654" s="2"/>
       <c r="D654" s="2"/>
@@ -11080,10 +11080,10 @@
     </row>
     <row r="655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A655" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B655" s="2">
-        <v>7.9116</v>
+        <v>7.9204999999999997</v>
       </c>
       <c r="C655" s="2"/>
       <c r="D655" s="2"/>
@@ -11093,7 +11093,7 @@
     </row>
     <row r="656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A656" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B656" s="2">
         <v>7.9116</v>
@@ -11106,7 +11106,7 @@
     </row>
     <row r="657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A657" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B657" s="2">
         <v>7.9116</v>
@@ -11119,10 +11119,10 @@
     </row>
     <row r="658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A658" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B658" s="2">
-        <v>7.9128999999999996</v>
+        <v>7.9116</v>
       </c>
       <c r="C658" s="2"/>
       <c r="D658" s="2"/>
@@ -11132,10 +11132,10 @@
     </row>
     <row r="659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A659" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B659" s="2">
-        <v>7.8777999999999997</v>
+        <v>7.9128999999999996</v>
       </c>
       <c r="C659" s="2"/>
       <c r="D659" s="2"/>
@@ -11145,10 +11145,10 @@
     </row>
     <row r="660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A660" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B660" s="2">
-        <v>7.8761000000000001</v>
+        <v>7.8777999999999997</v>
       </c>
       <c r="C660" s="2"/>
       <c r="D660" s="2"/>
@@ -11158,10 +11158,10 @@
     </row>
     <row r="661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A661" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B661" s="2">
-        <v>7.8178999999999998</v>
+        <v>7.8761000000000001</v>
       </c>
       <c r="C661" s="2"/>
       <c r="D661" s="2"/>
@@ -11171,10 +11171,10 @@
     </row>
     <row r="662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A662" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B662" s="2">
-        <v>7.8025000000000002</v>
+        <v>7.8178999999999998</v>
       </c>
       <c r="C662" s="2"/>
       <c r="D662" s="2"/>
@@ -11184,7 +11184,7 @@
     </row>
     <row r="663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A663" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B663" s="2">
         <v>7.8025000000000002</v>
@@ -11197,7 +11197,7 @@
     </row>
     <row r="664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A664" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B664" s="2">
         <v>7.8025000000000002</v>
@@ -11210,10 +11210,10 @@
     </row>
     <row r="665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A665" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B665" s="2">
-        <v>7.9379</v>
+        <v>7.8025000000000002</v>
       </c>
       <c r="C665" s="2"/>
       <c r="D665" s="2"/>
@@ -11223,10 +11223,10 @@
     </row>
     <row r="666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A666" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B666" s="2">
-        <v>8.0284999999999993</v>
+        <v>7.9379</v>
       </c>
       <c r="C666" s="2"/>
       <c r="D666" s="2"/>
@@ -11236,10 +11236,10 @@
     </row>
     <row r="667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A667" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B667" s="2">
-        <v>8.1211000000000002</v>
+        <v>8.0284999999999993</v>
       </c>
       <c r="C667" s="2"/>
       <c r="D667" s="2"/>
@@ -11249,7 +11249,7 @@
     </row>
     <row r="668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A668" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B668" s="2">
         <v>8.1211000000000002</v>
@@ -11262,7 +11262,7 @@
     </row>
     <row r="669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A669" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B669" s="2">
         <v>8.1211000000000002</v>
@@ -11275,7 +11275,7 @@
     </row>
     <row r="670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A670" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B670" s="2">
         <v>8.1211000000000002</v>
@@ -11288,7 +11288,7 @@
     </row>
     <row r="671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A671" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B671" s="2">
         <v>8.1211000000000002</v>
@@ -11301,10 +11301,10 @@
     </row>
     <row r="672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A672" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B672" s="2">
-        <v>8.3081999999999994</v>
+        <v>8.1211000000000002</v>
       </c>
       <c r="C672" s="2"/>
       <c r="D672" s="2"/>
@@ -11314,10 +11314,10 @@
     </row>
     <row r="673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A673" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B673" s="2">
-        <v>8.3759999999999994</v>
+        <v>8.3081999999999994</v>
       </c>
       <c r="C673" s="2"/>
       <c r="D673" s="2"/>
@@ -11327,10 +11327,10 @@
     </row>
     <row r="674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A674" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B674" s="2">
-        <v>8.4545999999999992</v>
+        <v>8.3759999999999994</v>
       </c>
       <c r="C674" s="2"/>
       <c r="D674" s="2"/>
@@ -11340,10 +11340,10 @@
     </row>
     <row r="675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A675" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B675" s="2">
-        <v>8.4552999999999994</v>
+        <v>8.4545999999999992</v>
       </c>
       <c r="C675" s="2"/>
       <c r="D675" s="2"/>
@@ -11353,10 +11353,10 @@
     </row>
     <row r="676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A676" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B676" s="2">
-        <v>8.4417000000000009</v>
+        <v>8.4552999999999994</v>
       </c>
       <c r="C676" s="2"/>
       <c r="D676" s="2"/>
@@ -11366,7 +11366,7 @@
     </row>
     <row r="677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A677" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B677" s="2">
         <v>8.4417000000000009</v>
@@ -11379,7 +11379,7 @@
     </row>
     <row r="678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A678" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B678" s="2">
         <v>8.4417000000000009</v>
@@ -11392,10 +11392,10 @@
     </row>
     <row r="679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A679" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B679" s="2">
-        <v>8.4612999999999996</v>
+        <v>8.4417000000000009</v>
       </c>
       <c r="C679" s="2"/>
       <c r="D679" s="2"/>
@@ -11405,10 +11405,10 @@
     </row>
     <row r="680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A680" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B680" s="2">
-        <v>8.1777999999999995</v>
+        <v>8.4612999999999996</v>
       </c>
       <c r="C680" s="2"/>
       <c r="D680" s="2"/>
@@ -11418,10 +11418,10 @@
     </row>
     <row r="681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A681" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B681" s="2">
-        <v>8.2357999999999993</v>
+        <v>8.1777999999999995</v>
       </c>
       <c r="C681" s="2"/>
       <c r="D681" s="2"/>
@@ -11431,10 +11431,10 @@
     </row>
     <row r="682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A682" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B682" s="2">
-        <v>8.0477000000000007</v>
+        <v>8.2357999999999993</v>
       </c>
       <c r="C682" s="2"/>
       <c r="D682" s="2"/>
@@ -11444,10 +11444,10 @@
     </row>
     <row r="683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A683" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B683" s="2">
-        <v>7.7896000000000001</v>
+        <v>8.0477000000000007</v>
       </c>
       <c r="C683" s="2"/>
       <c r="D683" s="2"/>
@@ -11457,7 +11457,7 @@
     </row>
     <row r="684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A684" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B684" s="2">
         <v>7.7896000000000001</v>
@@ -11470,7 +11470,7 @@
     </row>
     <row r="685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A685" s="4" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B685" s="2">
         <v>7.7896000000000001</v>
@@ -11483,10 +11483,10 @@
     </row>
     <row r="686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A686" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B686" s="2">
-        <v>7.6296999999999997</v>
+        <v>7.7896000000000001</v>
       </c>
       <c r="C686" s="2"/>
       <c r="D686" s="2"/>
@@ -11496,10 +11496,10 @@
     </row>
     <row r="687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A687" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="B687" s="2">
-        <v>7.6750999999999996</v>
+        <v>7.6296999999999997</v>
       </c>
       <c r="C687" s="2"/>
       <c r="D687" s="2"/>
@@ -11509,10 +11509,10 @@
     </row>
     <row r="688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A688" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B688" s="2">
-        <v>7.7393000000000001</v>
+        <v>7.6750999999999996</v>
       </c>
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
@@ -11522,10 +11522,10 @@
     </row>
     <row r="689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A689" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B689" s="2">
-        <v>7.7195</v>
+        <v>7.7393000000000001</v>
       </c>
       <c r="C689" s="2"/>
       <c r="D689" s="2"/>
@@ -11535,10 +11535,10 @@
     </row>
     <row r="690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A690" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B690" s="2">
-        <v>7.6699000000000002</v>
+        <v>7.7195</v>
       </c>
       <c r="C690" s="2"/>
       <c r="D690" s="2"/>
@@ -11548,7 +11548,7 @@
     </row>
     <row r="691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A691" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B691" s="2">
         <v>7.6699000000000002</v>
@@ -11561,7 +11561,7 @@
     </row>
     <row r="692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A692" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B692" s="2">
         <v>7.6699000000000002</v>
@@ -11574,10 +11574,10 @@
     </row>
     <row r="693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A693" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B693" s="2">
-        <v>7.5785</v>
+        <v>7.6699000000000002</v>
       </c>
       <c r="C693" s="2"/>
       <c r="D693" s="2"/>
@@ -11587,10 +11587,10 @@
     </row>
     <row r="694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A694" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="B694" s="2">
-        <v>7.7592999999999996</v>
+        <v>7.5785</v>
       </c>
       <c r="C694" s="2"/>
       <c r="D694" s="2"/>
@@ -11600,10 +11600,10 @@
     </row>
     <row r="695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A695" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B695" s="2">
-        <v>7.9169999999999998</v>
+        <v>7.7592999999999996</v>
       </c>
       <c r="C695" s="2"/>
       <c r="D695" s="2"/>
@@ -11613,10 +11613,10 @@
     </row>
     <row r="696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A696" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B696" s="2">
-        <v>7.9414999999999996</v>
+        <v>7.9169999999999998</v>
       </c>
       <c r="C696" s="2"/>
       <c r="D696" s="2"/>
@@ -11626,10 +11626,10 @@
     </row>
     <row r="697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A697" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B697" s="2">
-        <v>7.8944999999999999</v>
+        <v>7.9414999999999996</v>
       </c>
       <c r="C697" s="2"/>
       <c r="D697" s="2"/>
@@ -11639,7 +11639,7 @@
     </row>
     <row r="698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A698" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B698" s="2">
         <v>7.8944999999999999</v>
@@ -11652,7 +11652,7 @@
     </row>
     <row r="699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A699" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B699" s="2">
         <v>7.8944999999999999</v>
@@ -11665,10 +11665,10 @@
     </row>
     <row r="700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A700" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B700" s="2">
-        <v>7.7975000000000003</v>
+        <v>7.8944999999999999</v>
       </c>
       <c r="C700" s="2"/>
       <c r="D700" s="2"/>
@@ -11678,10 +11678,10 @@
     </row>
     <row r="701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A701" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B701" s="2">
-        <v>7.7892000000000001</v>
+        <v>7.7975000000000003</v>
       </c>
       <c r="C701" s="2"/>
       <c r="D701" s="2"/>
@@ -11691,10 +11691,10 @@
     </row>
     <row r="702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A702" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B702" s="2">
-        <v>7.8411999999999997</v>
+        <v>7.7892000000000001</v>
       </c>
       <c r="C702" s="2"/>
       <c r="D702" s="2"/>
@@ -11704,10 +11704,10 @@
     </row>
     <row r="703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A703" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B703" s="2">
-        <v>7.8079999999999998</v>
+        <v>7.8411999999999997</v>
       </c>
       <c r="C703" s="2"/>
       <c r="D703" s="2"/>
@@ -11717,10 +11717,10 @@
     </row>
     <row r="704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A704" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B704" s="2">
-        <v>7.8472</v>
+        <v>7.8079999999999998</v>
       </c>
       <c r="C704" s="2"/>
       <c r="D704" s="2"/>
@@ -11730,7 +11730,7 @@
     </row>
     <row r="705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A705" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B705" s="2">
         <v>7.8472</v>
@@ -11743,7 +11743,7 @@
     </row>
     <row r="706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A706" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B706" s="2">
         <v>7.8472</v>
@@ -11756,10 +11756,10 @@
     </row>
     <row r="707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A707" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B707" s="2">
-        <v>7.7796000000000003</v>
+        <v>7.8472</v>
       </c>
       <c r="C707" s="2"/>
       <c r="D707" s="2"/>
@@ -11769,10 +11769,10 @@
     </row>
     <row r="708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A708" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B708" s="2">
-        <v>7.8372999999999999</v>
+        <v>7.7796000000000003</v>
       </c>
       <c r="C708" s="2"/>
       <c r="D708" s="2"/>
@@ -11782,10 +11782,10 @@
     </row>
     <row r="709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A709" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B709" s="2">
-        <v>7.8087</v>
+        <v>7.8372999999999999</v>
       </c>
       <c r="C709" s="2"/>
       <c r="D709" s="2"/>
@@ -11795,10 +11795,10 @@
     </row>
     <row r="710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A710" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B710" s="2">
-        <v>7.8202999999999996</v>
+        <v>7.8087</v>
       </c>
       <c r="C710" s="2"/>
       <c r="D710" s="2"/>
@@ -11808,10 +11808,10 @@
     </row>
     <row r="711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A711" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B711" s="2">
-        <v>7.8498999999999999</v>
+        <v>7.8202999999999996</v>
       </c>
       <c r="C711" s="2"/>
       <c r="D711" s="2"/>
@@ -11821,7 +11821,7 @@
     </row>
     <row r="712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A712" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B712" s="2">
         <v>7.8498999999999999</v>
@@ -11834,7 +11834,7 @@
     </row>
     <row r="713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A713" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B713" s="2">
         <v>7.8498999999999999</v>
@@ -11847,10 +11847,10 @@
     </row>
     <row r="714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A714" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B714" s="2">
-        <v>7.9348999999999998</v>
+        <v>7.8498999999999999</v>
       </c>
       <c r="C714" s="2"/>
       <c r="D714" s="2"/>
@@ -11860,10 +11860,10 @@
     </row>
     <row r="715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A715" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B715" s="2">
-        <v>7.8699000000000003</v>
+        <v>7.9348999999999998</v>
       </c>
       <c r="C715" s="2"/>
       <c r="D715" s="2"/>
@@ -11873,10 +11873,10 @@
     </row>
     <row r="716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A716" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B716" s="2">
-        <v>7.8331</v>
+        <v>7.8699000000000003</v>
       </c>
       <c r="C716" s="2"/>
       <c r="D716" s="2"/>
@@ -11886,10 +11886,10 @@
     </row>
     <row r="717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A717" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B717" s="2">
-        <v>7.7873000000000001</v>
+        <v>7.8331</v>
       </c>
       <c r="C717" s="2"/>
       <c r="D717" s="2"/>
@@ -11899,10 +11899,10 @@
     </row>
     <row r="718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A718" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B718" s="2">
-        <v>7.7510000000000003</v>
+        <v>7.7873000000000001</v>
       </c>
       <c r="C718" s="2"/>
       <c r="D718" s="2"/>
@@ -11912,7 +11912,7 @@
     </row>
     <row r="719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A719" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B719" s="2">
         <v>7.7510000000000003</v>
@@ -11925,7 +11925,7 @@
     </row>
     <row r="720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A720" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B720" s="2">
         <v>7.7510000000000003</v>
@@ -11938,10 +11938,10 @@
     </row>
     <row r="721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A721" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B721" s="2">
-        <v>7.6898</v>
+        <v>7.7510000000000003</v>
       </c>
       <c r="C721" s="2"/>
       <c r="D721" s="2"/>
@@ -11951,10 +11951,10 @@
     </row>
     <row r="722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A722" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B722" s="2">
-        <v>7.6768999999999998</v>
+        <v>7.6898</v>
       </c>
       <c r="C722" s="2"/>
       <c r="D722" s="2"/>
@@ -11964,10 +11964,10 @@
     </row>
     <row r="723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A723" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B723" s="2">
-        <v>7.6368</v>
+        <v>7.6768999999999998</v>
       </c>
       <c r="C723" s="2"/>
       <c r="D723" s="2"/>
@@ -11977,10 +11977,10 @@
     </row>
     <row r="724" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A724" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B724" s="2">
-        <v>7.6321000000000003</v>
+        <v>7.6368</v>
       </c>
       <c r="C724" s="2"/>
       <c r="D724" s="2"/>
@@ -11990,10 +11990,10 @@
     </row>
     <row r="725" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A725" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B725" s="2">
-        <v>7.6189999999999998</v>
+        <v>7.6321000000000003</v>
       </c>
       <c r="C725" s="2"/>
       <c r="D725" s="2"/>
@@ -12003,7 +12003,7 @@
     </row>
     <row r="726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A726" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B726" s="2">
         <v>7.6189999999999998</v>
@@ -12016,7 +12016,7 @@
     </row>
     <row r="727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A727" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B727" s="2">
         <v>7.6189999999999998</v>
@@ -12029,10 +12029,10 @@
     </row>
     <row r="728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A728" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B728" s="2">
-        <v>7.5517000000000003</v>
+        <v>7.6189999999999998</v>
       </c>
       <c r="C728" s="2"/>
       <c r="D728" s="2"/>
@@ -12042,10 +12042,10 @@
     </row>
     <row r="729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A729" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B729" s="2">
-        <v>7.4737999999999998</v>
+        <v>7.5517000000000003</v>
       </c>
       <c r="C729" s="2"/>
       <c r="D729" s="2"/>
@@ -12055,10 +12055,10 @@
     </row>
     <row r="730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A730" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B730" s="2">
-        <v>7.4062999999999999</v>
+        <v>7.4737999999999998</v>
       </c>
       <c r="C730" s="2"/>
       <c r="D730" s="2"/>
@@ -12068,10 +12068,10 @@
     </row>
     <row r="731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A731" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B731" s="2">
-        <v>7.3404999999999996</v>
+        <v>7.4062999999999999</v>
       </c>
       <c r="C731" s="2"/>
       <c r="D731" s="2"/>
@@ -12079,11 +12079,24 @@
       <c r="F731" s="2"/>
       <c r="G731" s="2"/>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A734" s="3"/>
-    </row>
-    <row r="742" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A742" s="3"/>
+    <row r="732" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A732" s="4" t="s">
+        <v>729</v>
+      </c>
+      <c r="B732" s="2">
+        <v>7.3404999999999996</v>
+      </c>
+      <c r="C732" s="2"/>
+      <c r="D732" s="2"/>
+      <c r="E732" s="2"/>
+      <c r="F732" s="2"/>
+      <c r="G732" s="2"/>
+    </row>
+    <row r="735" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A735" s="3"/>
+    </row>
+    <row r="743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A743" s="3"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
